--- a/Data/Excel Spreadsheet for all database.xlsx
+++ b/Data/Excel Spreadsheet for all database.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sakri\Documents\GitHub\Group3\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBAC3B24-9942-4779-8F68-1E50F04AA2E9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76CD333C-2AA6-41B0-AC53-100002B05CB1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="8964" xr2:uid="{5BE2676A-B838-423E-A028-24E9E443D268}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{5BE2676A-B838-423E-A028-24E9E443D268}"/>
   </bookViews>
   <sheets>
     <sheet name="User" sheetId="1" r:id="rId1"/>
@@ -26,6 +26,7 @@
     <sheet name="Payment" sheetId="11" r:id="rId11"/>
     <sheet name="Invoice" sheetId="12" r:id="rId12"/>
     <sheet name="Review" sheetId="13" r:id="rId13"/>
+    <sheet name="CollectionSlot" sheetId="15" r:id="rId14"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -43,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="80">
   <si>
     <t>User</t>
   </si>
@@ -274,6 +275,15 @@
   </si>
   <si>
     <t>AdminAddress</t>
+  </si>
+  <si>
+    <t>CollectionSlotID</t>
+  </si>
+  <si>
+    <t>CollectionTime</t>
+  </si>
+  <si>
+    <t>CollectionDay</t>
   </si>
 </sst>
 </file>
@@ -633,10 +643,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9CAAA82E-906A-4140-A365-83DC95A237A9}">
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:D2"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -677,6 +687,11 @@
         <v>7</v>
       </c>
     </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>210001</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -685,10 +700,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CBF54B2-6D09-4EC6-9D9F-49DC6D95A617}">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -728,6 +743,11 @@
         <v>55</v>
       </c>
     </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>150001</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -735,7 +755,7 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9FD43FD6-0DA8-4C9C-BA21-70FD6EAF7AC7}">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
@@ -760,6 +780,11 @@
         <v>66</v>
       </c>
     </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>250001</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -767,10 +792,10 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1A2D205-E402-4D2F-9209-FAB0B1B7DC65}">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -804,6 +829,11 @@
         <v>64</v>
       </c>
     </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>90001</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -811,10 +841,10 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61F0F06D-BF67-4DB3-A1A6-06019E6F7168}">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -824,12 +854,12 @@
     <col min="4" max="4" width="9.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>73</v>
       </c>
@@ -841,6 +871,11 @@
       </c>
       <c r="D2" t="s">
         <v>35</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F8">
+        <v>180001</v>
       </c>
     </row>
   </sheetData>
@@ -848,12 +883,48 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F329ED14-84C5-4A2A-A784-5736BC6EFAF3}">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="14.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09427A0B-6421-4638-9104-BC5338BD9DD5}">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -890,6 +961,11 @@
         <v>76</v>
       </c>
     </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>10001</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -897,10 +973,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05F42D55-32F9-4B5C-B060-382E558DA586}">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -941,6 +1017,11 @@
         <v>21</v>
       </c>
     </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>200001</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -948,10 +1029,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD787E46-28B6-42DB-B9B0-AF8A27F3208F}">
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1001,6 +1082,11 @@
         <v>31</v>
       </c>
     </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>30001</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1008,10 +1094,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F427C55D-6E20-48DF-AE73-6CD1FA0572DC}">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1041,6 +1127,11 @@
         <v>15</v>
       </c>
     </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>40001</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1048,10 +1139,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2065B93-80A0-4361-A2A5-7DD57587C3AE}">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1082,6 +1173,11 @@
         <v>15</v>
       </c>
     </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>190001</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1089,7 +1185,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6252F8EF-EEE5-4C58-9102-DEEEE939018F}">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
@@ -1118,6 +1214,11 @@
         <v>43</v>
       </c>
     </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>310001</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1125,10 +1226,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73103244-3CE0-428D-8FF1-D2254FF786FD}">
-  <dimension ref="A1:M2"/>
+  <dimension ref="A1:M3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M29" sqref="M29"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1191,6 +1292,11 @@
         <v>41</v>
       </c>
     </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>160001</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1198,10 +1304,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4AA7B082-A1DC-4FE4-BA70-5ED3D4C6C81F}">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1238,6 +1344,11 @@
         <v>23</v>
       </c>
     </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>180001</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Data/Excel Spreadsheet for all database.xlsx
+++ b/Data/Excel Spreadsheet for all database.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sakri\Documents\GitHub\Group3\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76CD333C-2AA6-41B0-AC53-100002B05CB1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7417B5A4-FF80-4693-895A-7C603848D597}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{5BE2676A-B838-423E-A028-24E9E443D268}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="688" firstSheet="1" activeTab="13" xr2:uid="{5BE2676A-B838-423E-A028-24E9E443D268}"/>
   </bookViews>
   <sheets>
     <sheet name="User" sheetId="1" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="337" uniqueCount="227">
   <si>
     <t>User</t>
   </si>
@@ -103,9 +103,6 @@
     <t>TraderEmail</t>
   </si>
   <si>
-    <t>TraderPaasword</t>
-  </si>
-  <si>
     <t>TraderAddress</t>
   </si>
   <si>
@@ -193,12 +190,6 @@
     <t>ProductStock</t>
   </si>
   <si>
-    <t>AlleryInfromation</t>
-  </si>
-  <si>
-    <t>ProductQuantity</t>
-  </si>
-  <si>
     <t>ProductImage</t>
   </si>
   <si>
@@ -284,13 +275,475 @@
   </si>
   <si>
     <t>CollectionDay</t>
+  </si>
+  <si>
+    <t>Meat</t>
+  </si>
+  <si>
+    <t>Fish</t>
+  </si>
+  <si>
+    <t>Vegetables</t>
+  </si>
+  <si>
+    <t>Fruits</t>
+  </si>
+  <si>
+    <t>Cheese</t>
+  </si>
+  <si>
+    <t>Bakery</t>
+  </si>
+  <si>
+    <t>Aura</t>
+  </si>
+  <si>
+    <t>Blue Chesire</t>
+  </si>
+  <si>
+    <t>Dolce Latte</t>
+  </si>
+  <si>
+    <t>Labard Blue</t>
+  </si>
+  <si>
+    <t>Feta</t>
+  </si>
+  <si>
+    <t>Gruyere</t>
+  </si>
+  <si>
+    <t>Mojarella</t>
+  </si>
+  <si>
+    <t>Quesco Fresco</t>
+  </si>
+  <si>
+    <t>Cojita</t>
+  </si>
+  <si>
+    <t>Emmental</t>
+  </si>
+  <si>
+    <t>Guana Popdara</t>
+  </si>
+  <si>
+    <t>Parmesan</t>
+  </si>
+  <si>
+    <t>Lactose Intolerant</t>
+  </si>
+  <si>
+    <t>Cheddar</t>
+  </si>
+  <si>
+    <t>Comte</t>
+  </si>
+  <si>
+    <t>Gouda</t>
+  </si>
+  <si>
+    <t>Tallejio</t>
+  </si>
+  <si>
+    <t>AlleryInformation</t>
+  </si>
+  <si>
+    <t>Rohit</t>
+  </si>
+  <si>
+    <t>Pandey</t>
+  </si>
+  <si>
+    <t>rpandey@gmail.com</t>
+  </si>
+  <si>
+    <t>Kathmandu</t>
+  </si>
+  <si>
+    <t>Sakriya</t>
+  </si>
+  <si>
+    <t>Bajracharya</t>
+  </si>
+  <si>
+    <t>sakriya33@gmail.com</t>
+  </si>
+  <si>
+    <t>TraderPassword</t>
+  </si>
+  <si>
+    <t>Swastika</t>
+  </si>
+  <si>
+    <t>Adhikari</t>
+  </si>
+  <si>
+    <t>swasti@gmail.com</t>
+  </si>
+  <si>
+    <t>Sujan</t>
+  </si>
+  <si>
+    <t>Pariyar</t>
+  </si>
+  <si>
+    <t>spariyar@gmail.com</t>
+  </si>
+  <si>
+    <t>Prasanna</t>
+  </si>
+  <si>
+    <t>Shrestha</t>
+  </si>
+  <si>
+    <t>pshrestha@gmail.com</t>
+  </si>
+  <si>
+    <t>Utsav</t>
+  </si>
+  <si>
+    <t>Sapkota</t>
+  </si>
+  <si>
+    <t>usapkota@gmial.com</t>
+  </si>
+  <si>
+    <t>Auburn</t>
+  </si>
+  <si>
+    <t>Bessemer</t>
+  </si>
+  <si>
+    <t>Alexander City</t>
+  </si>
+  <si>
+    <t>Birmingham</t>
+  </si>
+  <si>
+    <t>Andalusia</t>
+  </si>
+  <si>
+    <t>Anniston</t>
+  </si>
+  <si>
+    <t>Chickasaw</t>
+  </si>
+  <si>
+    <t>Clanton</t>
+  </si>
+  <si>
+    <t>Athens</t>
+  </si>
+  <si>
+    <t>Atmore</t>
+  </si>
+  <si>
+    <t>arleengunder@gmail.com</t>
+  </si>
+  <si>
+    <t>mariannapgar@gmail.com</t>
+  </si>
+  <si>
+    <t>colleenestepp@gmail.com</t>
+  </si>
+  <si>
+    <t>michaelchaplin@gmail.com</t>
+  </si>
+  <si>
+    <t>geralynmunns@gmail.com</t>
+  </si>
+  <si>
+    <t>nellhong@gmail.com</t>
+  </si>
+  <si>
+    <t>charlsiesteigerwald@gmail.com</t>
+  </si>
+  <si>
+    <t>fernandahedden@gmail.com</t>
+  </si>
+  <si>
+    <t>wilbertauman@gmail.com</t>
+  </si>
+  <si>
+    <t>dorseycoit@gmail.com</t>
+  </si>
+  <si>
+    <t>Gunder</t>
+  </si>
+  <si>
+    <t>Arleen</t>
+  </si>
+  <si>
+    <t>Mariann</t>
+  </si>
+  <si>
+    <t>Apgar</t>
+  </si>
+  <si>
+    <t>Nell</t>
+  </si>
+  <si>
+    <t>Hong</t>
+  </si>
+  <si>
+    <t>Colleen</t>
+  </si>
+  <si>
+    <t>Estepp</t>
+  </si>
+  <si>
+    <t>Charlsie</t>
+  </si>
+  <si>
+    <t>Steigerwald</t>
+  </si>
+  <si>
+    <t>Fernanda</t>
+  </si>
+  <si>
+    <t>Hedden</t>
+  </si>
+  <si>
+    <t>Michael</t>
+  </si>
+  <si>
+    <t>Chaplin</t>
+  </si>
+  <si>
+    <t>Geralyn</t>
+  </si>
+  <si>
+    <t>Munns</t>
+  </si>
+  <si>
+    <t>Wilbert</t>
+  </si>
+  <si>
+    <t>Auman</t>
+  </si>
+  <si>
+    <t>Dorsey</t>
+  </si>
+  <si>
+    <t>Coit</t>
+  </si>
+  <si>
+    <t>Arleen123</t>
+  </si>
+  <si>
+    <t>Mariann234</t>
+  </si>
+  <si>
+    <t>Nell345</t>
+  </si>
+  <si>
+    <t>Colleen456</t>
+  </si>
+  <si>
+    <t>Charlsie567</t>
+  </si>
+  <si>
+    <t>Fernanda678</t>
+  </si>
+  <si>
+    <t>Michael789</t>
+  </si>
+  <si>
+    <t>Geralyn890</t>
+  </si>
+  <si>
+    <t>Wilbert098</t>
+  </si>
+  <si>
+    <t>Dorsey978</t>
+  </si>
+  <si>
+    <t>Hygienic Meat Shop</t>
+  </si>
+  <si>
+    <t>Naughty Pig Butchery &amp; Encased Meats</t>
+  </si>
+  <si>
+    <t>The Golden Grate</t>
+  </si>
+  <si>
+    <t>Praise cheeses!</t>
+  </si>
+  <si>
+    <t>Groomers Seafood.</t>
+  </si>
+  <si>
+    <t>River Thrive.</t>
+  </si>
+  <si>
+    <r>
+      <t>Deli</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Bros</t>
+    </r>
+  </si>
+  <si>
+    <t>The Yellow Submarine</t>
+  </si>
+  <si>
+    <t>Red Velvet Bakery</t>
+  </si>
+  <si>
+    <t>New Road</t>
+  </si>
+  <si>
+    <t>Queens Road</t>
+  </si>
+  <si>
+    <t>Alexander Road</t>
+  </si>
+  <si>
+    <t>Station Road</t>
+  </si>
+  <si>
+    <t>Green Lane</t>
+  </si>
+  <si>
+    <t>The Grove</t>
+  </si>
+  <si>
+    <t>Church Road</t>
+  </si>
+  <si>
+    <t>Queensway</t>
+  </si>
+  <si>
+    <t>Stanley Road</t>
+  </si>
+  <si>
+    <t>Chester Road</t>
+  </si>
+  <si>
+    <t>Bread</t>
+  </si>
+  <si>
+    <t>Flat Bread</t>
+  </si>
+  <si>
+    <t>Bagel</t>
+  </si>
+  <si>
+    <t>Pizza</t>
+  </si>
+  <si>
+    <t>Muffin</t>
+  </si>
+  <si>
+    <t>Doughnut</t>
+  </si>
+  <si>
+    <t>Buns</t>
+  </si>
+  <si>
+    <t>Cookies</t>
+  </si>
+  <si>
+    <t>Pastries</t>
+  </si>
+  <si>
+    <t>Pita</t>
+  </si>
+  <si>
+    <t>CornBread</t>
+  </si>
+  <si>
+    <t>SodaBread</t>
+  </si>
+  <si>
+    <t>Crumpets</t>
+  </si>
+  <si>
+    <t>Tarts</t>
+  </si>
+  <si>
+    <t>Crackers</t>
+  </si>
+  <si>
+    <t>Wheat and Yeast Allergies</t>
+  </si>
+  <si>
+    <t>Anytime Cakes</t>
+  </si>
+  <si>
+    <t>Cheese is a dairy product, derived from milk and produced in a wide range of flavors, textures and forms by coagulation of the milk protein casein.</t>
+  </si>
+  <si>
+    <t>A bakery is an establishment that produces and sells flour-based food baked in an oven such as bread, cookies, cakes, pastries, and pies.</t>
+  </si>
+  <si>
+    <t>Birthday Cake</t>
+  </si>
+  <si>
+    <t>Black Forest</t>
+  </si>
+  <si>
+    <t>Chocolate</t>
+  </si>
+  <si>
+    <t>Red Velvet</t>
+  </si>
+  <si>
+    <t>Peanut Cake</t>
+  </si>
+  <si>
+    <t>Coconut Choclate Cake</t>
+  </si>
+  <si>
+    <t>Strawberry Cake</t>
+  </si>
+  <si>
+    <t>Choclate Fruit Cake</t>
+  </si>
+  <si>
+    <t>Moose Fruit Cake</t>
+  </si>
+  <si>
+    <t>Chocolate Birthday Cake</t>
+  </si>
+  <si>
+    <t>Nuts Cake</t>
+  </si>
+  <si>
+    <t>Wallnut Ckae</t>
+  </si>
+  <si>
+    <t>Cherry Cake</t>
+  </si>
+  <si>
+    <t>Red Vanilla Cake</t>
+  </si>
+  <si>
+    <t>Butterscotch Cake</t>
+  </si>
+  <si>
+    <t>Vlentine Cake</t>
+  </si>
+  <si>
+    <t>Cake is a form of sweet food made from flour, sugar, and other ingredients, that is usually baked. In their oldest forms, cakes were modifications of bread</t>
+  </si>
+  <si>
+    <t>Wheat and Yeast Allergies, Lactose Intolerant, Eggs</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -301,6 +754,21 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -323,14 +791,21 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -645,7 +1120,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9CAAA82E-906A-4140-A365-83DC95A237A9}">
   <dimension ref="A1:H3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
@@ -666,7 +1141,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>2</v>
@@ -700,50 +1175,52 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CBF54B2-6D09-4EC6-9D9F-49DC6D95A617}">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="10.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="10.44140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D2" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+      <c r="E2" t="s">
         <v>59</v>
       </c>
-      <c r="B2" t="s">
+      <c r="F2" t="s">
         <v>60</v>
       </c>
-      <c r="C2" t="s">
+      <c r="G2" t="s">
         <v>61</v>
       </c>
-      <c r="D2" t="s">
-        <v>62</v>
-      </c>
-      <c r="E2" t="s">
-        <v>63</v>
-      </c>
-      <c r="F2" t="s">
-        <v>64</v>
-      </c>
-      <c r="G2" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>150001</v>
       </c>
@@ -769,15 +1246,15 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B2" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
@@ -809,24 +1286,24 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D2" t="s">
         <v>68</v>
       </c>
-      <c r="B2" t="s">
-        <v>69</v>
-      </c>
-      <c r="C2" t="s">
-        <v>70</v>
-      </c>
-      <c r="D2" t="s">
-        <v>71</v>
-      </c>
       <c r="E2" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
@@ -856,21 +1333,21 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B2" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
@@ -887,8 +1364,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F329ED14-84C5-4A2A-A784-5736BC6EFAF3}">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -900,18 +1377,18 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="B2" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C2" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
   </sheetData>
@@ -924,7 +1401,7 @@
   <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -958,25 +1435,43 @@
         <v>13</v>
       </c>
       <c r="F2" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>10001</v>
       </c>
+      <c r="B3" t="s">
+        <v>101</v>
+      </c>
+      <c r="C3" t="s">
+        <v>102</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="E3">
+        <v>132456</v>
+      </c>
+      <c r="F3" t="s">
+        <v>104</v>
+      </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D3" r:id="rId1" xr:uid="{647AEB61-F663-4A2F-B0BE-DF4703BD9F96}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05F42D55-32F9-4B5C-B060-382E558DA586}">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1008,31 +1503,133 @@
         <v>18</v>
       </c>
       <c r="E2" t="s">
+        <v>108</v>
+      </c>
+      <c r="F2" t="s">
         <v>19</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>20</v>
-      </c>
-      <c r="G2" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>200001</v>
       </c>
+      <c r="B3" t="s">
+        <v>105</v>
+      </c>
+      <c r="C3" t="s">
+        <v>106</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="E3">
+        <v>123456</v>
+      </c>
+      <c r="F3" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>200002</v>
+      </c>
+      <c r="B4" t="s">
+        <v>109</v>
+      </c>
+      <c r="C4" t="s">
+        <v>110</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="E4">
+        <v>123456</v>
+      </c>
+      <c r="F4" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>200003</v>
+      </c>
+      <c r="B5" t="s">
+        <v>112</v>
+      </c>
+      <c r="C5" t="s">
+        <v>113</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="E5">
+        <v>123456</v>
+      </c>
+      <c r="F5" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>200004</v>
+      </c>
+      <c r="B6" t="s">
+        <v>115</v>
+      </c>
+      <c r="C6" t="s">
+        <v>116</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="E6">
+        <v>123456</v>
+      </c>
+      <c r="F6" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>200005</v>
+      </c>
+      <c r="B7" t="s">
+        <v>118</v>
+      </c>
+      <c r="C7" t="s">
+        <v>119</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="E7">
+        <v>123456</v>
+      </c>
+      <c r="F7" t="s">
+        <v>104</v>
+      </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D3" r:id="rId1" xr:uid="{76FF674B-DF1B-4597-9762-B457A2401787}"/>
+    <hyperlink ref="D4" r:id="rId2" xr:uid="{CD7137DC-34FF-43D7-9A01-F77774486DE9}"/>
+    <hyperlink ref="D5" r:id="rId3" xr:uid="{147F4E02-2906-4E51-8098-C7AFED7CCBC5}"/>
+    <hyperlink ref="D6" r:id="rId4" xr:uid="{FABA20FF-08B0-49C4-9E82-C703C66588C7}"/>
+    <hyperlink ref="D7" r:id="rId5" xr:uid="{8E76655F-BC31-4B3D-A745-20E5586B2798}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD787E46-28B6-42DB-B9B0-AF8A27F3208F}">
-  <dimension ref="A1:I3"/>
+  <dimension ref="A1:I12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1050,44 +1647,281 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2" t="s">
         <v>23</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>24</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>25</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>26</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>27</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>28</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>29</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>30</v>
-      </c>
-      <c r="I2" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>30001</v>
       </c>
+      <c r="B3" t="s">
+        <v>142</v>
+      </c>
+      <c r="C3" t="s">
+        <v>141</v>
+      </c>
+      <c r="D3" t="s">
+        <v>161</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="G3" t="s">
+        <v>121</v>
+      </c>
+      <c r="I3" s="3">
+        <v>11818</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>30002</v>
+      </c>
+      <c r="B4" t="s">
+        <v>143</v>
+      </c>
+      <c r="C4" t="s">
+        <v>144</v>
+      </c>
+      <c r="D4" t="s">
+        <v>162</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="G4" t="s">
+        <v>122</v>
+      </c>
+      <c r="I4" s="3">
+        <v>12161</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>30003</v>
+      </c>
+      <c r="B5" t="s">
+        <v>145</v>
+      </c>
+      <c r="C5" t="s">
+        <v>146</v>
+      </c>
+      <c r="D5" t="s">
+        <v>163</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="G5" t="s">
+        <v>123</v>
+      </c>
+      <c r="I5" s="3">
+        <v>16145</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>30004</v>
+      </c>
+      <c r="B6" t="s">
+        <v>147</v>
+      </c>
+      <c r="C6" t="s">
+        <v>148</v>
+      </c>
+      <c r="D6" t="s">
+        <v>164</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="G6" t="s">
+        <v>124</v>
+      </c>
+      <c r="I6" s="3">
+        <v>22011</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>30005</v>
+      </c>
+      <c r="B7" t="s">
+        <v>149</v>
+      </c>
+      <c r="C7" t="s">
+        <v>150</v>
+      </c>
+      <c r="D7" t="s">
+        <v>165</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="G7" t="s">
+        <v>125</v>
+      </c>
+      <c r="I7" s="3">
+        <v>24402</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>30006</v>
+      </c>
+      <c r="B8" t="s">
+        <v>151</v>
+      </c>
+      <c r="C8" t="s">
+        <v>152</v>
+      </c>
+      <c r="D8" t="s">
+        <v>166</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="G8" t="s">
+        <v>126</v>
+      </c>
+      <c r="I8" s="3">
+        <v>25811</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>30007</v>
+      </c>
+      <c r="B9" t="s">
+        <v>153</v>
+      </c>
+      <c r="C9" t="s">
+        <v>154</v>
+      </c>
+      <c r="D9" t="s">
+        <v>167</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="G9" t="s">
+        <v>127</v>
+      </c>
+      <c r="I9" s="3">
+        <v>25955</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>30008</v>
+      </c>
+      <c r="B10" t="s">
+        <v>155</v>
+      </c>
+      <c r="C10" t="s">
+        <v>156</v>
+      </c>
+      <c r="D10" t="s">
+        <v>168</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="G10" t="s">
+        <v>128</v>
+      </c>
+      <c r="I10" s="3">
+        <v>28121</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>30009</v>
+      </c>
+      <c r="B11" t="s">
+        <v>157</v>
+      </c>
+      <c r="C11" t="s">
+        <v>158</v>
+      </c>
+      <c r="D11" t="s">
+        <v>169</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="G11" t="s">
+        <v>129</v>
+      </c>
+      <c r="I11" s="3">
+        <v>30895</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>30010</v>
+      </c>
+      <c r="B12" t="s">
+        <v>159</v>
+      </c>
+      <c r="C12" t="s">
+        <v>160</v>
+      </c>
+      <c r="D12" t="s">
+        <v>170</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="G12" t="s">
+        <v>130</v>
+      </c>
+      <c r="I12" s="3">
+        <v>32973</v>
+      </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="E3" r:id="rId1" xr:uid="{FFA0E461-2433-4EB9-90DA-E3A93FF638DE}"/>
+    <hyperlink ref="E4" r:id="rId2" xr:uid="{CC2DAACF-F40E-41F0-805E-870694776725}"/>
+    <hyperlink ref="E5" r:id="rId3" xr:uid="{39CE2935-ADD9-4488-8815-C1255C9E2B13}"/>
+    <hyperlink ref="E9" r:id="rId4" xr:uid="{2D12770F-3E61-4E17-A3EC-5C62DCC55B54}"/>
+    <hyperlink ref="E10" r:id="rId5" xr:uid="{BE22D71A-1DCA-429E-8B7E-0E3C5D350E28}"/>
+    <hyperlink ref="E6" r:id="rId6" xr:uid="{4EF6C495-3D89-43C0-A7D2-CC42E4448A88}"/>
+    <hyperlink ref="E7" r:id="rId7" xr:uid="{2588E24F-7896-4DB3-BFE1-654BA9962DB0}"/>
+    <hyperlink ref="E8" r:id="rId8" xr:uid="{7DBFD881-AE99-4E22-9CB0-1131FA80EC46}"/>
+    <hyperlink ref="E11" r:id="rId9" xr:uid="{975946E6-2716-40C0-93BF-2CE9DDCEE0F9}"/>
+    <hyperlink ref="E12" r:id="rId10" xr:uid="{A458D354-003A-4E38-A3DB-27AF02B76310}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1110,18 +1944,18 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2" t="s">
         <v>33</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>34</v>
-      </c>
-      <c r="C2" t="s">
-        <v>35</v>
       </c>
       <c r="D2" t="s">
         <v>15</v>
@@ -1139,32 +1973,32 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2065B93-80A0-4361-A2A5-7DD57587C3AE}">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="11.6640625" customWidth="1"/>
+    <col min="2" max="2" width="34.6640625" customWidth="1"/>
     <col min="3" max="3" width="15.21875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B2" t="s">
         <v>37</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>38</v>
-      </c>
-      <c r="C2" t="s">
-        <v>39</v>
       </c>
       <c r="D2" t="s">
         <v>9</v>
@@ -1177,46 +2011,255 @@
       <c r="A3">
         <v>190001</v>
       </c>
+      <c r="B3" t="s">
+        <v>171</v>
+      </c>
+      <c r="C3" t="s">
+        <v>181</v>
+      </c>
+      <c r="D3">
+        <v>10001</v>
+      </c>
+      <c r="E3">
+        <v>200001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>190002</v>
+      </c>
+      <c r="B4" t="s">
+        <v>172</v>
+      </c>
+      <c r="C4" t="s">
+        <v>180</v>
+      </c>
+      <c r="D4">
+        <v>10001</v>
+      </c>
+      <c r="E4">
+        <v>200001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>190003</v>
+      </c>
+      <c r="B5" t="s">
+        <v>173</v>
+      </c>
+      <c r="C5" t="s">
+        <v>182</v>
+      </c>
+      <c r="D5">
+        <v>10001</v>
+      </c>
+      <c r="E5">
+        <v>200002</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>190004</v>
+      </c>
+      <c r="B6" t="s">
+        <v>174</v>
+      </c>
+      <c r="C6" t="s">
+        <v>183</v>
+      </c>
+      <c r="D6">
+        <v>10001</v>
+      </c>
+      <c r="E6">
+        <v>200002</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>190005</v>
+      </c>
+      <c r="B7" t="s">
+        <v>175</v>
+      </c>
+      <c r="C7" t="s">
+        <v>184</v>
+      </c>
+      <c r="D7">
+        <v>10001</v>
+      </c>
+      <c r="E7">
+        <v>200003</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>190006</v>
+      </c>
+      <c r="B8" t="s">
+        <v>176</v>
+      </c>
+      <c r="C8" t="s">
+        <v>185</v>
+      </c>
+      <c r="D8">
+        <v>10001</v>
+      </c>
+      <c r="E8">
+        <v>200003</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>190007</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="C9" t="s">
+        <v>186</v>
+      </c>
+      <c r="D9">
+        <v>10001</v>
+      </c>
+      <c r="E9">
+        <v>200004</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>190008</v>
+      </c>
+      <c r="B10" t="s">
+        <v>178</v>
+      </c>
+      <c r="C10" t="s">
+        <v>187</v>
+      </c>
+      <c r="D10">
+        <v>10001</v>
+      </c>
+      <c r="E10">
+        <v>200004</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>190009</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="C11" t="s">
+        <v>188</v>
+      </c>
+      <c r="D11">
+        <v>10001</v>
+      </c>
+      <c r="E11">
+        <v>200005</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>190010</v>
+      </c>
+      <c r="B12" t="s">
+        <v>179</v>
+      </c>
+      <c r="C12" t="s">
+        <v>189</v>
+      </c>
+      <c r="D12">
+        <v>10001</v>
+      </c>
+      <c r="E12">
+        <v>200005</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6252F8EF-EEE5-4C58-9102-DEEEE939018F}">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="12" customWidth="1"/>
     <col min="2" max="2" width="13.21875" customWidth="1"/>
-    <col min="3" max="3" width="13.109375" customWidth="1"/>
+    <col min="3" max="3" width="14" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B2" t="s">
         <v>41</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>42</v>
-      </c>
-      <c r="C2" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>310001</v>
+      </c>
+      <c r="B3" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>310002</v>
+      </c>
+      <c r="B4" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>310003</v>
+      </c>
+      <c r="B5" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>310004</v>
+      </c>
+      <c r="B6" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>310005</v>
+      </c>
+      <c r="B7" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>310006</v>
+      </c>
+      <c r="B8" t="s">
+        <v>82</v>
       </c>
     </row>
   </sheetData>
@@ -1226,19 +2269,19 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73103244-3CE0-428D-8FF1-D2254FF786FD}">
-  <dimension ref="A1:M3"/>
+  <dimension ref="A1:L54"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="L33" sqref="L33:L49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="13" customWidth="1"/>
     <col min="3" max="3" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="133.109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15.44140625" customWidth="1"/>
-    <col min="6" max="6" width="16.6640625" customWidth="1"/>
+    <col min="6" max="6" width="45.88671875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="14" customWidth="1"/>
     <col min="8" max="8" width="13" customWidth="1"/>
     <col min="9" max="9" width="13.88671875" customWidth="1"/>
@@ -1246,55 +2289,1717 @@
     <col min="13" max="13" width="10.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B2" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>35</v>
-      </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>45</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>46</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>47</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
+        <v>100</v>
+      </c>
+      <c r="G2" t="s">
         <v>48</v>
       </c>
-      <c r="F2" t="s">
+      <c r="H2" t="s">
         <v>49</v>
       </c>
-      <c r="G2" t="s">
+      <c r="I2" t="s">
         <v>50</v>
       </c>
-      <c r="H2" t="s">
-        <v>51</v>
-      </c>
-      <c r="I2" t="s">
-        <v>52</v>
-      </c>
       <c r="J2" t="s">
-        <v>53</v>
+        <v>15</v>
       </c>
       <c r="K2" t="s">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="L2" t="s">
-        <v>37</v>
-      </c>
-      <c r="M2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>160001</v>
+      </c>
+      <c r="B3" t="s">
+        <v>83</v>
+      </c>
+      <c r="C3">
+        <v>11</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="E3">
+        <v>20</v>
+      </c>
+      <c r="F3" t="s">
+        <v>95</v>
+      </c>
+      <c r="H3">
+        <v>1</v>
+      </c>
+      <c r="I3">
+        <v>5</v>
+      </c>
+      <c r="J3">
+        <v>200002</v>
+      </c>
+      <c r="K3">
+        <v>190003</v>
+      </c>
+      <c r="L3">
+        <v>310005</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>160002</v>
+      </c>
+      <c r="B4" t="s">
+        <v>84</v>
+      </c>
+      <c r="C4">
+        <v>45</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="E4">
+        <v>21</v>
+      </c>
+      <c r="F4" t="s">
+        <v>95</v>
+      </c>
+      <c r="H4">
+        <v>1</v>
+      </c>
+      <c r="I4">
+        <v>5</v>
+      </c>
+      <c r="J4">
+        <v>200002</v>
+      </c>
+      <c r="K4">
+        <v>190003</v>
+      </c>
+      <c r="L4">
+        <v>310005</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>160003</v>
+      </c>
+      <c r="B5" t="s">
+        <v>85</v>
+      </c>
+      <c r="C5">
+        <v>43</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="E5">
+        <v>22</v>
+      </c>
+      <c r="F5" t="s">
+        <v>95</v>
+      </c>
+      <c r="H5">
+        <v>1</v>
+      </c>
+      <c r="I5">
+        <v>5</v>
+      </c>
+      <c r="J5">
+        <v>200002</v>
+      </c>
+      <c r="K5">
+        <v>190003</v>
+      </c>
+      <c r="L5">
+        <v>310005</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>160004</v>
+      </c>
+      <c r="B6" t="s">
+        <v>86</v>
+      </c>
+      <c r="C6">
+        <v>78</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="E6">
+        <v>23</v>
+      </c>
+      <c r="F6" t="s">
+        <v>95</v>
+      </c>
+      <c r="H6">
+        <v>1</v>
+      </c>
+      <c r="I6">
+        <v>5</v>
+      </c>
+      <c r="J6">
+        <v>200002</v>
+      </c>
+      <c r="K6">
+        <v>190003</v>
+      </c>
+      <c r="L6">
+        <v>310005</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>160005</v>
+      </c>
+      <c r="B7" t="s">
+        <v>87</v>
+      </c>
+      <c r="C7">
+        <v>75</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="E7">
+        <v>24</v>
+      </c>
+      <c r="F7" t="s">
+        <v>95</v>
+      </c>
+      <c r="H7">
+        <v>1</v>
+      </c>
+      <c r="I7">
+        <v>5</v>
+      </c>
+      <c r="J7">
+        <v>200002</v>
+      </c>
+      <c r="K7">
+        <v>190003</v>
+      </c>
+      <c r="L7">
+        <v>310005</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>160006</v>
+      </c>
+      <c r="B8" t="s">
+        <v>88</v>
+      </c>
+      <c r="C8">
+        <v>12</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="E8">
+        <v>25</v>
+      </c>
+      <c r="F8" t="s">
+        <v>95</v>
+      </c>
+      <c r="H8">
+        <v>1</v>
+      </c>
+      <c r="I8">
+        <v>5</v>
+      </c>
+      <c r="J8">
+        <v>200002</v>
+      </c>
+      <c r="K8">
+        <v>190003</v>
+      </c>
+      <c r="L8">
+        <v>310005</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>160007</v>
+      </c>
+      <c r="B9" t="s">
+        <v>89</v>
+      </c>
+      <c r="C9">
+        <v>45</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="E9">
+        <v>26</v>
+      </c>
+      <c r="F9" t="s">
+        <v>95</v>
+      </c>
+      <c r="H9">
+        <v>1</v>
+      </c>
+      <c r="I9">
+        <v>5</v>
+      </c>
+      <c r="J9">
+        <v>200002</v>
+      </c>
+      <c r="K9">
+        <v>190003</v>
+      </c>
+      <c r="L9">
+        <v>310005</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>160008</v>
+      </c>
+      <c r="B10" t="s">
+        <v>90</v>
+      </c>
+      <c r="C10">
+        <v>58</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="E10">
+        <v>27</v>
+      </c>
+      <c r="F10" t="s">
+        <v>95</v>
+      </c>
+      <c r="H10">
+        <v>1</v>
+      </c>
+      <c r="I10">
+        <v>5</v>
+      </c>
+      <c r="J10">
+        <v>200002</v>
+      </c>
+      <c r="K10">
+        <v>190003</v>
+      </c>
+      <c r="L10">
+        <v>310005</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>160009</v>
+      </c>
+      <c r="B11" t="s">
+        <v>91</v>
+      </c>
+      <c r="C11">
+        <v>89</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="E11">
+        <v>28</v>
+      </c>
+      <c r="F11" t="s">
+        <v>95</v>
+      </c>
+      <c r="H11">
+        <v>1</v>
+      </c>
+      <c r="I11">
+        <v>5</v>
+      </c>
+      <c r="J11">
+        <v>200002</v>
+      </c>
+      <c r="K11">
+        <v>190004</v>
+      </c>
+      <c r="L11">
+        <v>310005</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>160010</v>
+      </c>
+      <c r="B12" t="s">
+        <v>92</v>
+      </c>
+      <c r="C12">
+        <v>20</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="E12">
+        <v>29</v>
+      </c>
+      <c r="F12" t="s">
+        <v>95</v>
+      </c>
+      <c r="H12">
+        <v>1</v>
+      </c>
+      <c r="I12">
+        <v>5</v>
+      </c>
+      <c r="J12">
+        <v>200002</v>
+      </c>
+      <c r="K12">
+        <v>190004</v>
+      </c>
+      <c r="L12">
+        <v>310005</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>160011</v>
+      </c>
+      <c r="B13" t="s">
+        <v>93</v>
+      </c>
+      <c r="C13">
+        <v>51</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="E13">
+        <v>30</v>
+      </c>
+      <c r="F13" t="s">
+        <v>95</v>
+      </c>
+      <c r="H13">
+        <v>1</v>
+      </c>
+      <c r="I13">
+        <v>5</v>
+      </c>
+      <c r="J13">
+        <v>200002</v>
+      </c>
+      <c r="K13">
+        <v>190004</v>
+      </c>
+      <c r="L13">
+        <v>310005</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>160012</v>
+      </c>
+      <c r="B14" t="s">
+        <v>94</v>
+      </c>
+      <c r="C14">
+        <v>32</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="E14">
+        <v>31</v>
+      </c>
+      <c r="F14" t="s">
+        <v>95</v>
+      </c>
+      <c r="H14">
+        <v>1</v>
+      </c>
+      <c r="I14">
+        <v>5</v>
+      </c>
+      <c r="J14">
+        <v>200002</v>
+      </c>
+      <c r="K14">
+        <v>190004</v>
+      </c>
+      <c r="L14">
+        <v>310005</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>160013</v>
+      </c>
+      <c r="B15" t="s">
+        <v>96</v>
+      </c>
+      <c r="C15">
+        <v>33</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="E15">
+        <v>32</v>
+      </c>
+      <c r="F15" t="s">
+        <v>95</v>
+      </c>
+      <c r="H15">
+        <v>1</v>
+      </c>
+      <c r="I15">
+        <v>5</v>
+      </c>
+      <c r="J15">
+        <v>200002</v>
+      </c>
+      <c r="K15">
+        <v>190004</v>
+      </c>
+      <c r="L15">
+        <v>310005</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>160014</v>
+      </c>
+      <c r="B16" t="s">
+        <v>97</v>
+      </c>
+      <c r="C16">
+        <v>34</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="E16">
+        <v>33</v>
+      </c>
+      <c r="F16" t="s">
+        <v>95</v>
+      </c>
+      <c r="H16">
+        <v>1</v>
+      </c>
+      <c r="I16">
+        <v>5</v>
+      </c>
+      <c r="J16">
+        <v>200002</v>
+      </c>
+      <c r="K16">
+        <v>190004</v>
+      </c>
+      <c r="L16">
+        <v>310005</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>160015</v>
+      </c>
+      <c r="B17" t="s">
+        <v>98</v>
+      </c>
+      <c r="C17">
+        <v>35</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="E17">
+        <v>34</v>
+      </c>
+      <c r="F17" t="s">
+        <v>95</v>
+      </c>
+      <c r="H17">
+        <v>1</v>
+      </c>
+      <c r="I17">
+        <v>5</v>
+      </c>
+      <c r="J17">
+        <v>200002</v>
+      </c>
+      <c r="K17">
+        <v>190004</v>
+      </c>
+      <c r="L17">
+        <v>310005</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>160016</v>
+      </c>
+      <c r="B18" t="s">
+        <v>99</v>
+      </c>
+      <c r="C18">
+        <v>36</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="E18">
+        <v>35</v>
+      </c>
+      <c r="F18" t="s">
+        <v>95</v>
+      </c>
+      <c r="H18">
+        <v>1</v>
+      </c>
+      <c r="I18">
+        <v>5</v>
+      </c>
+      <c r="J18">
+        <v>200002</v>
+      </c>
+      <c r="K18">
+        <v>190004</v>
+      </c>
+      <c r="L18">
+        <v>310005</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>160017</v>
+      </c>
+      <c r="B19" t="s">
+        <v>190</v>
+      </c>
+      <c r="C19">
+        <v>5</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="E19">
+        <v>36</v>
+      </c>
+      <c r="F19" t="s">
+        <v>205</v>
+      </c>
+      <c r="H19">
+        <v>1</v>
+      </c>
+      <c r="I19">
+        <v>5</v>
+      </c>
+      <c r="J19">
+        <v>200005</v>
+      </c>
+      <c r="K19">
+        <v>190010</v>
+      </c>
+      <c r="L19">
+        <v>310006</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>160018</v>
+      </c>
+      <c r="B20" t="s">
+        <v>191</v>
+      </c>
+      <c r="C20">
+        <v>6</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="E20">
+        <v>37</v>
+      </c>
+      <c r="F20" t="s">
+        <v>205</v>
+      </c>
+      <c r="H20">
+        <v>1</v>
+      </c>
+      <c r="I20">
+        <v>5</v>
+      </c>
+      <c r="J20">
+        <v>200005</v>
+      </c>
+      <c r="K20">
+        <v>190010</v>
+      </c>
+      <c r="L20">
+        <v>310006</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>160019</v>
+      </c>
+      <c r="B21" t="s">
+        <v>192</v>
+      </c>
+      <c r="C21">
+        <v>7</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="E21">
+        <v>38</v>
+      </c>
+      <c r="F21" t="s">
+        <v>205</v>
+      </c>
+      <c r="H21">
+        <v>1</v>
+      </c>
+      <c r="I21">
+        <v>5</v>
+      </c>
+      <c r="J21">
+        <v>200005</v>
+      </c>
+      <c r="K21">
+        <v>190010</v>
+      </c>
+      <c r="L21">
+        <v>310006</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>160020</v>
+      </c>
+      <c r="B22" t="s">
+        <v>195</v>
+      </c>
+      <c r="C22">
+        <v>8</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="E22">
+        <v>39</v>
+      </c>
+      <c r="F22" t="s">
+        <v>205</v>
+      </c>
+      <c r="H22">
+        <v>1</v>
+      </c>
+      <c r="I22">
+        <v>5</v>
+      </c>
+      <c r="J22">
+        <v>200005</v>
+      </c>
+      <c r="K22">
+        <v>190010</v>
+      </c>
+      <c r="L22">
+        <v>310006</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>160021</v>
+      </c>
+      <c r="B23" t="s">
+        <v>194</v>
+      </c>
+      <c r="C23">
+        <v>9</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="E23">
+        <v>40</v>
+      </c>
+      <c r="F23" t="s">
+        <v>205</v>
+      </c>
+      <c r="H23">
+        <v>1</v>
+      </c>
+      <c r="I23">
+        <v>5</v>
+      </c>
+      <c r="J23">
+        <v>200005</v>
+      </c>
+      <c r="K23">
+        <v>190010</v>
+      </c>
+      <c r="L23">
+        <v>310006</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>160022</v>
+      </c>
+      <c r="B24" t="s">
+        <v>193</v>
+      </c>
+      <c r="C24">
+        <v>10</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="E24">
+        <v>41</v>
+      </c>
+      <c r="F24" t="s">
+        <v>205</v>
+      </c>
+      <c r="H24">
+        <v>1</v>
+      </c>
+      <c r="I24">
+        <v>5</v>
+      </c>
+      <c r="J24">
+        <v>200005</v>
+      </c>
+      <c r="K24">
+        <v>190010</v>
+      </c>
+      <c r="L24">
+        <v>310006</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>160023</v>
+      </c>
+      <c r="B25" t="s">
+        <v>196</v>
+      </c>
+      <c r="C25">
+        <v>11</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="E25">
+        <v>42</v>
+      </c>
+      <c r="F25" t="s">
+        <v>205</v>
+      </c>
+      <c r="H25">
+        <v>1</v>
+      </c>
+      <c r="I25">
+        <v>5</v>
+      </c>
+      <c r="J25">
+        <v>200005</v>
+      </c>
+      <c r="K25">
+        <v>190010</v>
+      </c>
+      <c r="L25">
+        <v>310006</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>160024</v>
+      </c>
+      <c r="B26" t="s">
+        <v>197</v>
+      </c>
+      <c r="C26">
+        <v>12</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="E26">
+        <v>43</v>
+      </c>
+      <c r="F26" t="s">
+        <v>205</v>
+      </c>
+      <c r="H26">
+        <v>1</v>
+      </c>
+      <c r="I26">
+        <v>5</v>
+      </c>
+      <c r="J26">
+        <v>200005</v>
+      </c>
+      <c r="K26">
+        <v>190010</v>
+      </c>
+      <c r="L26">
+        <v>310006</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>160025</v>
+      </c>
+      <c r="B27" t="s">
+        <v>198</v>
+      </c>
+      <c r="C27">
+        <v>13</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="E27">
+        <v>44</v>
+      </c>
+      <c r="F27" t="s">
+        <v>205</v>
+      </c>
+      <c r="H27">
+        <v>1</v>
+      </c>
+      <c r="I27">
+        <v>5</v>
+      </c>
+      <c r="J27">
+        <v>200005</v>
+      </c>
+      <c r="K27">
+        <v>190010</v>
+      </c>
+      <c r="L27">
+        <v>310006</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>160026</v>
+      </c>
+      <c r="B28" t="s">
+        <v>199</v>
+      </c>
+      <c r="C28">
+        <v>14</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="E28">
+        <v>45</v>
+      </c>
+      <c r="F28" t="s">
+        <v>205</v>
+      </c>
+      <c r="H28">
+        <v>1</v>
+      </c>
+      <c r="I28">
+        <v>5</v>
+      </c>
+      <c r="J28">
+        <v>200005</v>
+      </c>
+      <c r="K28">
+        <v>190010</v>
+      </c>
+      <c r="L28">
+        <v>310006</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>160027</v>
+      </c>
+      <c r="B29" t="s">
+        <v>200</v>
+      </c>
+      <c r="C29">
+        <v>15</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="E29">
+        <v>46</v>
+      </c>
+      <c r="F29" t="s">
+        <v>205</v>
+      </c>
+      <c r="H29">
+        <v>1</v>
+      </c>
+      <c r="I29">
+        <v>5</v>
+      </c>
+      <c r="J29">
+        <v>200005</v>
+      </c>
+      <c r="K29">
+        <v>190010</v>
+      </c>
+      <c r="L29">
+        <v>310006</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>160028</v>
+      </c>
+      <c r="B30" t="s">
+        <v>201</v>
+      </c>
+      <c r="C30">
+        <v>16</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="E30">
+        <v>47</v>
+      </c>
+      <c r="F30" t="s">
+        <v>205</v>
+      </c>
+      <c r="H30">
+        <v>1</v>
+      </c>
+      <c r="I30">
+        <v>5</v>
+      </c>
+      <c r="J30">
+        <v>200005</v>
+      </c>
+      <c r="K30">
+        <v>190010</v>
+      </c>
+      <c r="L30">
+        <v>310006</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>160029</v>
+      </c>
+      <c r="B31" t="s">
+        <v>202</v>
+      </c>
+      <c r="C31">
+        <v>17</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="E31">
+        <v>48</v>
+      </c>
+      <c r="F31" t="s">
+        <v>205</v>
+      </c>
+      <c r="H31">
+        <v>1</v>
+      </c>
+      <c r="I31">
+        <v>5</v>
+      </c>
+      <c r="J31">
+        <v>200005</v>
+      </c>
+      <c r="K31">
+        <v>190010</v>
+      </c>
+      <c r="L31">
+        <v>310006</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <v>160030</v>
+      </c>
+      <c r="B32" t="s">
+        <v>203</v>
+      </c>
+      <c r="C32">
+        <v>18</v>
+      </c>
+      <c r="D32" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="E32">
+        <v>49</v>
+      </c>
+      <c r="F32" t="s">
+        <v>205</v>
+      </c>
+      <c r="H32">
+        <v>1</v>
+      </c>
+      <c r="I32">
+        <v>5</v>
+      </c>
+      <c r="J32">
+        <v>200005</v>
+      </c>
+      <c r="K32">
+        <v>190010</v>
+      </c>
+      <c r="L32">
+        <v>310006</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <v>160031</v>
+      </c>
+      <c r="B33" t="s">
+        <v>204</v>
+      </c>
+      <c r="C33">
+        <v>19</v>
+      </c>
+      <c r="D33" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="E33">
+        <v>50</v>
+      </c>
+      <c r="F33" t="s">
+        <v>205</v>
+      </c>
+      <c r="H33">
+        <v>1</v>
+      </c>
+      <c r="I33">
+        <v>5</v>
+      </c>
+      <c r="J33">
+        <v>200005</v>
+      </c>
+      <c r="K33">
+        <v>190010</v>
+      </c>
+      <c r="L33">
+        <v>310006</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <v>160032</v>
+      </c>
+      <c r="B34" t="s">
+        <v>209</v>
+      </c>
+      <c r="C34">
+        <v>10</v>
+      </c>
+      <c r="D34" t="s">
+        <v>225</v>
+      </c>
+      <c r="E34">
+        <v>10</v>
+      </c>
+      <c r="F34" t="s">
+        <v>226</v>
+      </c>
+      <c r="H34">
+        <v>2</v>
+      </c>
+      <c r="I34">
+        <v>10</v>
+      </c>
+      <c r="J34">
+        <v>200005</v>
+      </c>
+      <c r="K34">
+        <v>190009</v>
+      </c>
+      <c r="L34">
+        <v>310006</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A35">
+        <v>160033</v>
+      </c>
+      <c r="B35" t="s">
+        <v>210</v>
+      </c>
+      <c r="C35">
+        <v>11</v>
+      </c>
+      <c r="D35" t="s">
+        <v>225</v>
+      </c>
+      <c r="E35">
+        <v>11</v>
+      </c>
+      <c r="F35" t="s">
+        <v>226</v>
+      </c>
+      <c r="H35">
+        <v>2</v>
+      </c>
+      <c r="I35">
+        <v>10</v>
+      </c>
+      <c r="J35">
+        <v>200005</v>
+      </c>
+      <c r="K35">
+        <v>190009</v>
+      </c>
+      <c r="L35">
+        <v>310006</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A36">
+        <v>160034</v>
+      </c>
+      <c r="B36" t="s">
+        <v>211</v>
+      </c>
+      <c r="C36">
+        <v>12</v>
+      </c>
+      <c r="D36" t="s">
+        <v>225</v>
+      </c>
+      <c r="E36">
+        <v>12</v>
+      </c>
+      <c r="F36" t="s">
+        <v>226</v>
+      </c>
+      <c r="H36">
+        <v>2</v>
+      </c>
+      <c r="I36">
+        <v>10</v>
+      </c>
+      <c r="J36">
+        <v>200005</v>
+      </c>
+      <c r="K36">
+        <v>190009</v>
+      </c>
+      <c r="L36">
+        <v>310006</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A37">
+        <v>160035</v>
+      </c>
+      <c r="B37" t="s">
+        <v>212</v>
+      </c>
+      <c r="C37">
+        <v>13</v>
+      </c>
+      <c r="D37" t="s">
+        <v>225</v>
+      </c>
+      <c r="E37">
+        <v>13</v>
+      </c>
+      <c r="F37" t="s">
+        <v>226</v>
+      </c>
+      <c r="H37">
+        <v>2</v>
+      </c>
+      <c r="I37">
+        <v>10</v>
+      </c>
+      <c r="J37">
+        <v>200005</v>
+      </c>
+      <c r="K37">
+        <v>190009</v>
+      </c>
+      <c r="L37">
+        <v>310006</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A38">
+        <v>160036</v>
+      </c>
+      <c r="B38" t="s">
+        <v>213</v>
+      </c>
+      <c r="C38">
+        <v>14</v>
+      </c>
+      <c r="D38" t="s">
+        <v>225</v>
+      </c>
+      <c r="E38">
+        <v>14</v>
+      </c>
+      <c r="F38" t="s">
+        <v>226</v>
+      </c>
+      <c r="H38">
+        <v>2</v>
+      </c>
+      <c r="I38">
+        <v>10</v>
+      </c>
+      <c r="J38">
+        <v>200005</v>
+      </c>
+      <c r="K38">
+        <v>190009</v>
+      </c>
+      <c r="L38">
+        <v>310006</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A39">
+        <v>160037</v>
+      </c>
+      <c r="B39" t="s">
+        <v>214</v>
+      </c>
+      <c r="C39">
+        <v>15</v>
+      </c>
+      <c r="D39" t="s">
+        <v>225</v>
+      </c>
+      <c r="E39">
+        <v>15</v>
+      </c>
+      <c r="F39" t="s">
+        <v>226</v>
+      </c>
+      <c r="H39">
+        <v>2</v>
+      </c>
+      <c r="I39">
+        <v>10</v>
+      </c>
+      <c r="J39">
+        <v>200005</v>
+      </c>
+      <c r="K39">
+        <v>190009</v>
+      </c>
+      <c r="L39">
+        <v>310006</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A40">
+        <v>160038</v>
+      </c>
+      <c r="B40" t="s">
+        <v>215</v>
+      </c>
+      <c r="C40">
+        <v>16</v>
+      </c>
+      <c r="D40" t="s">
+        <v>225</v>
+      </c>
+      <c r="E40">
+        <v>16</v>
+      </c>
+      <c r="F40" t="s">
+        <v>226</v>
+      </c>
+      <c r="H40">
+        <v>2</v>
+      </c>
+      <c r="I40">
+        <v>10</v>
+      </c>
+      <c r="J40">
+        <v>200005</v>
+      </c>
+      <c r="K40">
+        <v>190009</v>
+      </c>
+      <c r="L40">
+        <v>310006</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A41">
+        <v>160039</v>
+      </c>
+      <c r="B41" t="s">
+        <v>216</v>
+      </c>
+      <c r="C41">
+        <v>17</v>
+      </c>
+      <c r="D41" t="s">
+        <v>225</v>
+      </c>
+      <c r="E41">
+        <v>17</v>
+      </c>
+      <c r="F41" t="s">
+        <v>226</v>
+      </c>
+      <c r="H41">
+        <v>2</v>
+      </c>
+      <c r="I41">
+        <v>10</v>
+      </c>
+      <c r="J41">
+        <v>200005</v>
+      </c>
+      <c r="K41">
+        <v>190009</v>
+      </c>
+      <c r="L41">
+        <v>310006</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A42">
+        <v>160040</v>
+      </c>
+      <c r="B42" t="s">
+        <v>217</v>
+      </c>
+      <c r="C42">
+        <v>18</v>
+      </c>
+      <c r="D42" t="s">
+        <v>225</v>
+      </c>
+      <c r="E42">
+        <v>18</v>
+      </c>
+      <c r="F42" t="s">
+        <v>226</v>
+      </c>
+      <c r="H42">
+        <v>2</v>
+      </c>
+      <c r="I42">
+        <v>10</v>
+      </c>
+      <c r="J42">
+        <v>200005</v>
+      </c>
+      <c r="K42">
+        <v>190009</v>
+      </c>
+      <c r="L42">
+        <v>310006</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A43">
+        <v>160041</v>
+      </c>
+      <c r="B43" t="s">
+        <v>218</v>
+      </c>
+      <c r="C43">
+        <v>19</v>
+      </c>
+      <c r="D43" t="s">
+        <v>225</v>
+      </c>
+      <c r="E43">
+        <v>19</v>
+      </c>
+      <c r="F43" t="s">
+        <v>226</v>
+      </c>
+      <c r="H43">
+        <v>2</v>
+      </c>
+      <c r="I43">
+        <v>10</v>
+      </c>
+      <c r="J43">
+        <v>200005</v>
+      </c>
+      <c r="K43">
+        <v>190009</v>
+      </c>
+      <c r="L43">
+        <v>310006</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A44">
+        <v>160042</v>
+      </c>
+      <c r="B44" t="s">
+        <v>219</v>
+      </c>
+      <c r="C44">
+        <v>20</v>
+      </c>
+      <c r="D44" t="s">
+        <v>225</v>
+      </c>
+      <c r="E44">
+        <v>20</v>
+      </c>
+      <c r="F44" t="s">
+        <v>226</v>
+      </c>
+      <c r="H44">
+        <v>2</v>
+      </c>
+      <c r="I44">
+        <v>10</v>
+      </c>
+      <c r="J44">
+        <v>200005</v>
+      </c>
+      <c r="K44">
+        <v>190009</v>
+      </c>
+      <c r="L44">
+        <v>310006</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A45">
+        <v>160043</v>
+      </c>
+      <c r="B45" t="s">
+        <v>220</v>
+      </c>
+      <c r="C45">
+        <v>21</v>
+      </c>
+      <c r="D45" t="s">
+        <v>225</v>
+      </c>
+      <c r="E45">
+        <v>21</v>
+      </c>
+      <c r="F45" t="s">
+        <v>226</v>
+      </c>
+      <c r="H45">
+        <v>2</v>
+      </c>
+      <c r="I45">
+        <v>10</v>
+      </c>
+      <c r="J45">
+        <v>200005</v>
+      </c>
+      <c r="K45">
+        <v>190009</v>
+      </c>
+      <c r="L45">
+        <v>310006</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A46">
+        <v>160044</v>
+      </c>
+      <c r="B46" t="s">
+        <v>221</v>
+      </c>
+      <c r="C46">
+        <v>22</v>
+      </c>
+      <c r="D46" t="s">
+        <v>225</v>
+      </c>
+      <c r="E46">
+        <v>22</v>
+      </c>
+      <c r="F46" t="s">
+        <v>226</v>
+      </c>
+      <c r="H46">
+        <v>2</v>
+      </c>
+      <c r="I46">
+        <v>10</v>
+      </c>
+      <c r="J46">
+        <v>200005</v>
+      </c>
+      <c r="K46">
+        <v>190009</v>
+      </c>
+      <c r="L46">
+        <v>310006</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A47">
+        <v>160045</v>
+      </c>
+      <c r="B47" t="s">
+        <v>222</v>
+      </c>
+      <c r="C47">
+        <v>23</v>
+      </c>
+      <c r="D47" t="s">
+        <v>225</v>
+      </c>
+      <c r="E47">
+        <v>23</v>
+      </c>
+      <c r="F47" t="s">
+        <v>226</v>
+      </c>
+      <c r="H47">
+        <v>2</v>
+      </c>
+      <c r="I47">
+        <v>10</v>
+      </c>
+      <c r="J47">
+        <v>200005</v>
+      </c>
+      <c r="K47">
+        <v>190009</v>
+      </c>
+      <c r="L47">
+        <v>310006</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A48">
+        <v>160046</v>
+      </c>
+      <c r="B48" t="s">
+        <v>223</v>
+      </c>
+      <c r="C48">
+        <v>24</v>
+      </c>
+      <c r="D48" t="s">
+        <v>225</v>
+      </c>
+      <c r="E48">
+        <v>24</v>
+      </c>
+      <c r="F48" t="s">
+        <v>226</v>
+      </c>
+      <c r="H48">
+        <v>2</v>
+      </c>
+      <c r="I48">
+        <v>10</v>
+      </c>
+      <c r="J48">
+        <v>200005</v>
+      </c>
+      <c r="K48">
+        <v>190009</v>
+      </c>
+      <c r="L48">
+        <v>310006</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A49">
+        <v>160047</v>
+      </c>
+      <c r="B49" t="s">
+        <v>224</v>
+      </c>
+      <c r="C49">
+        <v>25</v>
+      </c>
+      <c r="D49" t="s">
+        <v>225</v>
+      </c>
+      <c r="E49">
+        <v>25</v>
+      </c>
+      <c r="F49" t="s">
+        <v>226</v>
+      </c>
+      <c r="H49">
+        <v>2</v>
+      </c>
+      <c r="I49">
+        <v>10</v>
+      </c>
+      <c r="J49">
+        <v>200005</v>
+      </c>
+      <c r="K49">
+        <v>190009</v>
+      </c>
+      <c r="L49">
+        <v>310006</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A50">
+        <v>160048</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A51">
+        <v>160049</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A52">
+        <v>160050</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A53">
+        <v>160051</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A54">
+        <v>160052</v>
       </c>
     </row>
   </sheetData>
@@ -1321,27 +4026,27 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B2" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C2" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E2" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="F2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">

--- a/Data/Excel Spreadsheet for all database.xlsx
+++ b/Data/Excel Spreadsheet for all database.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sakri\Documents\GitHub\Group3\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7417B5A4-FF80-4693-895A-7C603848D597}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{405EFA2A-F20E-4E77-A72C-8FD0918B783B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="688" firstSheet="1" activeTab="13" xr2:uid="{5BE2676A-B838-423E-A028-24E9E443D268}"/>
+    <workbookView xWindow="-28920" yWindow="-2265" windowWidth="29040" windowHeight="15840" tabRatio="688" firstSheet="1" activeTab="6" xr2:uid="{5BE2676A-B838-423E-A028-24E9E443D268}"/>
   </bookViews>
   <sheets>
     <sheet name="User" sheetId="1" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="337" uniqueCount="227">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="384" uniqueCount="274">
   <si>
     <t>User</t>
   </si>
@@ -184,9 +184,6 @@
     <t>ProductPrice</t>
   </si>
   <si>
-    <t>ProductDesription</t>
-  </si>
-  <si>
     <t>ProductStock</t>
   </si>
   <si>
@@ -344,9 +341,6 @@
   </si>
   <si>
     <t>Tallejio</t>
-  </si>
-  <si>
-    <t>AlleryInformation</t>
   </si>
   <si>
     <t>Rohit</t>
@@ -738,12 +732,159 @@
   <si>
     <t>Wheat and Yeast Allergies, Lactose Intolerant, Eggs</t>
   </si>
+  <si>
+    <t>image/product/bakery/b1.jpg</t>
+  </si>
+  <si>
+    <t>image/product/bakery/b2.jpg</t>
+  </si>
+  <si>
+    <t>image/product/bakery/b3.jpg</t>
+  </si>
+  <si>
+    <t>image/product/bakery/b4.jpg</t>
+  </si>
+  <si>
+    <t>image/product/bakery/b5.jpg</t>
+  </si>
+  <si>
+    <t>image/product/bakery/b6.jpg</t>
+  </si>
+  <si>
+    <t>image/product/bakery/b7.jpg</t>
+  </si>
+  <si>
+    <t>image/product/bakery/b8.jpg</t>
+  </si>
+  <si>
+    <t>image/product/bakery/b9.jpg</t>
+  </si>
+  <si>
+    <t>image/product/bakery/b10.jpg</t>
+  </si>
+  <si>
+    <t>image/product/bakery/b11.jpg</t>
+  </si>
+  <si>
+    <t>image/product/bakery/b12.jpg</t>
+  </si>
+  <si>
+    <t>image/product/bakery/b13.jpg</t>
+  </si>
+  <si>
+    <t>image/product/bakery/b14.jpg</t>
+  </si>
+  <si>
+    <t>image/product/bakery/b15.jpg</t>
+  </si>
+  <si>
+    <t>image/product/bakery/c1.jpg</t>
+  </si>
+  <si>
+    <t>image/product/bakery/c2.jpg</t>
+  </si>
+  <si>
+    <t>image/product/bakery/c3.jpg</t>
+  </si>
+  <si>
+    <t>image/product/bakery/c4.jpg</t>
+  </si>
+  <si>
+    <t>image/product/bakery/c5.jpg</t>
+  </si>
+  <si>
+    <t>image/product/bakery/c6.jpg</t>
+  </si>
+  <si>
+    <t>image/product/bakery/c7.jpg</t>
+  </si>
+  <si>
+    <t>image/product/bakery/c8.jpg</t>
+  </si>
+  <si>
+    <t>image/product/bakery/c9.jpg</t>
+  </si>
+  <si>
+    <t>image/product/bakery/c10.jpg</t>
+  </si>
+  <si>
+    <t>image/product/bakery/c11.jpg</t>
+  </si>
+  <si>
+    <t>image/product/bakery/c12.jpg</t>
+  </si>
+  <si>
+    <t>image/product/bakery/c13.jpg</t>
+  </si>
+  <si>
+    <t>image/product/bakery/c14.jpg</t>
+  </si>
+  <si>
+    <t>image/product/bakery/c15.jpg</t>
+  </si>
+  <si>
+    <t>image/product/bakery/c16.jpg</t>
+  </si>
+  <si>
+    <t>AllergyInformation</t>
+  </si>
+  <si>
+    <t>ProductDescription</t>
+  </si>
+  <si>
+    <t>image/product/cheese/aura.jpg</t>
+  </si>
+  <si>
+    <t>image/product/cheese/mojarella.jpg</t>
+  </si>
+  <si>
+    <t>image/product/cheese/cojita.jpg</t>
+  </si>
+  <si>
+    <t>image/product/cheese/parmesan.jpg</t>
+  </si>
+  <si>
+    <t>image/product/cheese/cheddar.jpg</t>
+  </si>
+  <si>
+    <t>image/product/cheese/comte.jpg</t>
+  </si>
+  <si>
+    <t>image/product/cheese/gouda.jpg</t>
+  </si>
+  <si>
+    <t>image/product/cheese/ablue.jpg</t>
+  </si>
+  <si>
+    <t>image/product/cheese/dolce.jpg</t>
+  </si>
+  <si>
+    <t>image/product/cheese/lanark.jpg</t>
+  </si>
+  <si>
+    <t>image/product/cheese/fetajpg</t>
+  </si>
+  <si>
+    <t>image/product/cheese/gruyre.jpg</t>
+  </si>
+  <si>
+    <t>image/product/cheese/queso.jpg</t>
+  </si>
+  <si>
+    <t>image/product/cheese/emmwntal.jpg</t>
+  </si>
+  <si>
+    <t>image/product/cheese/guana.jpg</t>
+  </si>
+  <si>
+    <t>image/product/cheese/tallegio.jpg</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -754,13 +895,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -793,12 +927,12 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -1141,7 +1275,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>2</v>
@@ -1191,33 +1325,33 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B2" t="s">
         <v>22</v>
       </c>
       <c r="C2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D2" t="s">
         <v>57</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>58</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>59</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>60</v>
       </c>
-      <c r="G2" t="s">
-        <v>61</v>
-      </c>
       <c r="H2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
@@ -1246,15 +1380,15 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
@@ -1286,24 +1420,24 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B2" t="s">
         <v>65</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>66</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>67</v>
       </c>
-      <c r="D2" t="s">
-        <v>68</v>
-      </c>
       <c r="E2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
@@ -1333,15 +1467,15 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B2" t="s">
         <v>70</v>
-      </c>
-      <c r="B2" t="s">
-        <v>71</v>
       </c>
       <c r="C2" t="s">
         <v>22</v>
@@ -1364,7 +1498,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F329ED14-84C5-4A2A-A784-5736BC6EFAF3}">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
@@ -1377,18 +1511,18 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C2" t="s">
         <v>74</v>
-      </c>
-      <c r="B2" t="s">
-        <v>76</v>
-      </c>
-      <c r="C2" t="s">
-        <v>75</v>
       </c>
     </row>
   </sheetData>
@@ -1435,7 +1569,7 @@
         <v>13</v>
       </c>
       <c r="F2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
@@ -1443,19 +1577,19 @@
         <v>10001</v>
       </c>
       <c r="B3" t="s">
+        <v>99</v>
+      </c>
+      <c r="C3" t="s">
+        <v>100</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>101</v>
-      </c>
-      <c r="C3" t="s">
-        <v>102</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>103</v>
       </c>
       <c r="E3">
         <v>132456</v>
       </c>
       <c r="F3" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
   </sheetData>
@@ -1503,7 +1637,7 @@
         <v>18</v>
       </c>
       <c r="E2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="F2" t="s">
         <v>19</v>
@@ -1517,19 +1651,19 @@
         <v>200001</v>
       </c>
       <c r="B3" t="s">
+        <v>103</v>
+      </c>
+      <c r="C3" t="s">
+        <v>104</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>105</v>
-      </c>
-      <c r="C3" t="s">
-        <v>106</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>107</v>
       </c>
       <c r="E3">
         <v>123456</v>
       </c>
       <c r="F3" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
@@ -1537,19 +1671,19 @@
         <v>200002</v>
       </c>
       <c r="B4" t="s">
+        <v>107</v>
+      </c>
+      <c r="C4" t="s">
+        <v>108</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>109</v>
-      </c>
-      <c r="C4" t="s">
-        <v>110</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>111</v>
       </c>
       <c r="E4">
         <v>123456</v>
       </c>
       <c r="F4" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
@@ -1557,19 +1691,19 @@
         <v>200003</v>
       </c>
       <c r="B5" t="s">
+        <v>110</v>
+      </c>
+      <c r="C5" t="s">
+        <v>111</v>
+      </c>
+      <c r="D5" s="2" t="s">
         <v>112</v>
-      </c>
-      <c r="C5" t="s">
-        <v>113</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>114</v>
       </c>
       <c r="E5">
         <v>123456</v>
       </c>
       <c r="F5" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
@@ -1577,19 +1711,19 @@
         <v>200004</v>
       </c>
       <c r="B6" t="s">
+        <v>113</v>
+      </c>
+      <c r="C6" t="s">
+        <v>114</v>
+      </c>
+      <c r="D6" s="2" t="s">
         <v>115</v>
-      </c>
-      <c r="C6" t="s">
-        <v>116</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>117</v>
       </c>
       <c r="E6">
         <v>123456</v>
       </c>
       <c r="F6" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
@@ -1597,19 +1731,19 @@
         <v>200005</v>
       </c>
       <c r="B7" t="s">
+        <v>116</v>
+      </c>
+      <c r="C7" t="s">
+        <v>117</v>
+      </c>
+      <c r="D7" s="2" t="s">
         <v>118</v>
-      </c>
-      <c r="C7" t="s">
-        <v>119</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>120</v>
       </c>
       <c r="E7">
         <v>123456</v>
       </c>
       <c r="F7" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
   </sheetData>
@@ -1684,19 +1818,19 @@
         <v>30001</v>
       </c>
       <c r="B3" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C3" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D3" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="G3" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="I3" s="3">
         <v>11818</v>
@@ -1707,19 +1841,19 @@
         <v>30002</v>
       </c>
       <c r="B4" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C4" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D4" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="G4" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="I4" s="3">
         <v>12161</v>
@@ -1730,19 +1864,19 @@
         <v>30003</v>
       </c>
       <c r="B5" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C5" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D5" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="G5" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="I5" s="3">
         <v>16145</v>
@@ -1753,19 +1887,19 @@
         <v>30004</v>
       </c>
       <c r="B6" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C6" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D6" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="G6" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="I6" s="3">
         <v>22011</v>
@@ -1776,19 +1910,19 @@
         <v>30005</v>
       </c>
       <c r="B7" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C7" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D7" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="G7" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="I7" s="3">
         <v>24402</v>
@@ -1799,19 +1933,19 @@
         <v>30006</v>
       </c>
       <c r="B8" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C8" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D8" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="G8" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="I8" s="3">
         <v>25811</v>
@@ -1822,19 +1956,19 @@
         <v>30007</v>
       </c>
       <c r="B9" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C9" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D9" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="G9" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="I9" s="3">
         <v>25955</v>
@@ -1845,19 +1979,19 @@
         <v>30008</v>
       </c>
       <c r="B10" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C10" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="D10" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="G10" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="I10" s="3">
         <v>28121</v>
@@ -1868,19 +2002,19 @@
         <v>30009</v>
       </c>
       <c r="B11" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C11" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D11" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="G11" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="I11" s="3">
         <v>30895</v>
@@ -1891,19 +2025,19 @@
         <v>30010</v>
       </c>
       <c r="B12" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C12" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D12" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="G12" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="I12" s="3">
         <v>32973</v>
@@ -2012,10 +2146,10 @@
         <v>190001</v>
       </c>
       <c r="B3" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C3" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D3">
         <v>10001</v>
@@ -2029,10 +2163,10 @@
         <v>190002</v>
       </c>
       <c r="B4" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C4" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="D4">
         <v>10001</v>
@@ -2046,10 +2180,10 @@
         <v>190003</v>
       </c>
       <c r="B5" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C5" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="D5">
         <v>10001</v>
@@ -2063,10 +2197,10 @@
         <v>190004</v>
       </c>
       <c r="B6" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C6" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="D6">
         <v>10001</v>
@@ -2080,10 +2214,10 @@
         <v>190005</v>
       </c>
       <c r="B7" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="D7">
         <v>10001</v>
@@ -2097,10 +2231,10 @@
         <v>190006</v>
       </c>
       <c r="B8" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C8" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="D8">
         <v>10001</v>
@@ -2114,10 +2248,10 @@
         <v>190007</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C9" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D9">
         <v>10001</v>
@@ -2131,10 +2265,10 @@
         <v>190008</v>
       </c>
       <c r="B10" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C10" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D10">
         <v>10001</v>
@@ -2148,10 +2282,10 @@
         <v>190009</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C11" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="D11">
         <v>10001</v>
@@ -2165,10 +2299,10 @@
         <v>190010</v>
       </c>
       <c r="B12" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C12" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D12">
         <v>10001</v>
@@ -2187,7 +2321,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6252F8EF-EEE5-4C58-9102-DEEEE939018F}">
   <dimension ref="A1:C8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
@@ -2219,7 +2353,7 @@
         <v>310001</v>
       </c>
       <c r="B3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
@@ -2227,7 +2361,7 @@
         <v>310002</v>
       </c>
       <c r="B4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
@@ -2235,7 +2369,7 @@
         <v>310003</v>
       </c>
       <c r="B5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
@@ -2243,7 +2377,7 @@
         <v>310004</v>
       </c>
       <c r="B6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
@@ -2251,7 +2385,7 @@
         <v>310005</v>
       </c>
       <c r="B7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
@@ -2259,7 +2393,7 @@
         <v>310006</v>
       </c>
       <c r="B8" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
   </sheetData>
@@ -2271,18 +2405,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73103244-3CE0-428D-8FF1-D2254FF786FD}">
   <dimension ref="A1:L54"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L33" sqref="L33:L49"/>
+    <sheetView topLeftCell="C10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F26" sqref="A1:L54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="13" customWidth="1"/>
+    <col min="2" max="2" width="21.88671875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.33203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="133.109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15.44140625" customWidth="1"/>
     <col min="6" max="6" width="45.88671875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14" customWidth="1"/>
+    <col min="7" max="7" width="26.109375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="13" customWidth="1"/>
     <col min="9" max="9" width="13.88671875" customWidth="1"/>
     <col min="10" max="10" width="13.88671875" bestFit="1" customWidth="1"/>
@@ -2305,22 +2439,22 @@
         <v>45</v>
       </c>
       <c r="D2" t="s">
+        <v>257</v>
+      </c>
+      <c r="E2" t="s">
         <v>46</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
+        <v>256</v>
+      </c>
+      <c r="G2" t="s">
         <v>47</v>
       </c>
-      <c r="F2" t="s">
-        <v>100</v>
-      </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>48</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>49</v>
-      </c>
-      <c r="I2" t="s">
-        <v>50</v>
       </c>
       <c r="J2" t="s">
         <v>15</v>
@@ -2337,19 +2471,22 @@
         <v>160001</v>
       </c>
       <c r="B3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C3">
         <v>11</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="E3">
         <v>20</v>
       </c>
       <c r="F3" t="s">
-        <v>95</v>
+        <v>94</v>
+      </c>
+      <c r="G3" t="s">
+        <v>258</v>
       </c>
       <c r="H3">
         <v>1</v>
@@ -2372,19 +2509,22 @@
         <v>160002</v>
       </c>
       <c r="B4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C4">
         <v>45</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="E4">
         <v>21</v>
       </c>
       <c r="F4" t="s">
-        <v>95</v>
+        <v>94</v>
+      </c>
+      <c r="G4" t="s">
+        <v>265</v>
       </c>
       <c r="H4">
         <v>1</v>
@@ -2407,19 +2547,22 @@
         <v>160003</v>
       </c>
       <c r="B5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C5">
         <v>43</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="E5">
         <v>22</v>
       </c>
       <c r="F5" t="s">
-        <v>95</v>
+        <v>94</v>
+      </c>
+      <c r="G5" t="s">
+        <v>266</v>
       </c>
       <c r="H5">
         <v>1</v>
@@ -2442,19 +2585,22 @@
         <v>160004</v>
       </c>
       <c r="B6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C6">
         <v>78</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="E6">
         <v>23</v>
       </c>
       <c r="F6" t="s">
-        <v>95</v>
+        <v>94</v>
+      </c>
+      <c r="G6" t="s">
+        <v>267</v>
       </c>
       <c r="H6">
         <v>1</v>
@@ -2477,19 +2623,22 @@
         <v>160005</v>
       </c>
       <c r="B7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C7">
         <v>75</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="E7">
         <v>24</v>
       </c>
       <c r="F7" t="s">
-        <v>95</v>
+        <v>94</v>
+      </c>
+      <c r="G7" t="s">
+        <v>268</v>
       </c>
       <c r="H7">
         <v>1</v>
@@ -2512,19 +2661,22 @@
         <v>160006</v>
       </c>
       <c r="B8" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C8">
         <v>12</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="E8">
         <v>25</v>
       </c>
       <c r="F8" t="s">
-        <v>95</v>
+        <v>94</v>
+      </c>
+      <c r="G8" t="s">
+        <v>269</v>
       </c>
       <c r="H8">
         <v>1</v>
@@ -2547,19 +2699,22 @@
         <v>160007</v>
       </c>
       <c r="B9" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C9">
         <v>45</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="E9">
         <v>26</v>
       </c>
       <c r="F9" t="s">
-        <v>95</v>
+        <v>94</v>
+      </c>
+      <c r="G9" t="s">
+        <v>259</v>
       </c>
       <c r="H9">
         <v>1</v>
@@ -2582,19 +2737,22 @@
         <v>160008</v>
       </c>
       <c r="B10" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C10">
         <v>58</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="E10">
         <v>27</v>
       </c>
       <c r="F10" t="s">
-        <v>95</v>
+        <v>94</v>
+      </c>
+      <c r="G10" t="s">
+        <v>270</v>
       </c>
       <c r="H10">
         <v>1</v>
@@ -2617,19 +2775,22 @@
         <v>160009</v>
       </c>
       <c r="B11" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C11">
         <v>89</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="E11">
         <v>28</v>
       </c>
       <c r="F11" t="s">
-        <v>95</v>
+        <v>94</v>
+      </c>
+      <c r="G11" t="s">
+        <v>260</v>
       </c>
       <c r="H11">
         <v>1</v>
@@ -2652,19 +2813,22 @@
         <v>160010</v>
       </c>
       <c r="B12" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C12">
         <v>20</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="E12">
         <v>29</v>
       </c>
       <c r="F12" t="s">
-        <v>95</v>
+        <v>94</v>
+      </c>
+      <c r="G12" t="s">
+        <v>271</v>
       </c>
       <c r="H12">
         <v>1</v>
@@ -2687,19 +2851,22 @@
         <v>160011</v>
       </c>
       <c r="B13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C13">
         <v>51</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="E13">
         <v>30</v>
       </c>
       <c r="F13" t="s">
-        <v>95</v>
+        <v>94</v>
+      </c>
+      <c r="G13" t="s">
+        <v>272</v>
       </c>
       <c r="H13">
         <v>1</v>
@@ -2722,19 +2889,22 @@
         <v>160012</v>
       </c>
       <c r="B14" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C14">
         <v>32</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="E14">
         <v>31</v>
       </c>
       <c r="F14" t="s">
-        <v>95</v>
+        <v>94</v>
+      </c>
+      <c r="G14" t="s">
+        <v>261</v>
       </c>
       <c r="H14">
         <v>1</v>
@@ -2757,19 +2927,22 @@
         <v>160013</v>
       </c>
       <c r="B15" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C15">
         <v>33</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="E15">
         <v>32</v>
       </c>
       <c r="F15" t="s">
-        <v>95</v>
+        <v>94</v>
+      </c>
+      <c r="G15" t="s">
+        <v>262</v>
       </c>
       <c r="H15">
         <v>1</v>
@@ -2792,19 +2965,22 @@
         <v>160014</v>
       </c>
       <c r="B16" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C16">
         <v>34</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="E16">
         <v>33</v>
       </c>
       <c r="F16" t="s">
-        <v>95</v>
+        <v>94</v>
+      </c>
+      <c r="G16" t="s">
+        <v>263</v>
       </c>
       <c r="H16">
         <v>1</v>
@@ -2827,19 +3003,22 @@
         <v>160015</v>
       </c>
       <c r="B17" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C17">
         <v>35</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="E17">
         <v>34</v>
       </c>
       <c r="F17" t="s">
-        <v>95</v>
+        <v>94</v>
+      </c>
+      <c r="G17" t="s">
+        <v>264</v>
       </c>
       <c r="H17">
         <v>1</v>
@@ -2862,19 +3041,22 @@
         <v>160016</v>
       </c>
       <c r="B18" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C18">
         <v>36</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="E18">
         <v>35</v>
       </c>
       <c r="F18" t="s">
-        <v>95</v>
+        <v>94</v>
+      </c>
+      <c r="G18" t="s">
+        <v>273</v>
       </c>
       <c r="H18">
         <v>1</v>
@@ -2897,19 +3079,22 @@
         <v>160017</v>
       </c>
       <c r="B19" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C19">
         <v>5</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="E19">
         <v>36</v>
       </c>
       <c r="F19" t="s">
-        <v>205</v>
+        <v>203</v>
+      </c>
+      <c r="G19" t="s">
+        <v>225</v>
       </c>
       <c r="H19">
         <v>1</v>
@@ -2932,19 +3117,22 @@
         <v>160018</v>
       </c>
       <c r="B20" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C20">
         <v>6</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="E20">
         <v>37</v>
       </c>
       <c r="F20" t="s">
-        <v>205</v>
+        <v>203</v>
+      </c>
+      <c r="G20" t="s">
+        <v>226</v>
       </c>
       <c r="H20">
         <v>1</v>
@@ -2967,19 +3155,22 @@
         <v>160019</v>
       </c>
       <c r="B21" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C21">
         <v>7</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="E21">
         <v>38</v>
       </c>
       <c r="F21" t="s">
-        <v>205</v>
+        <v>203</v>
+      </c>
+      <c r="G21" t="s">
+        <v>227</v>
       </c>
       <c r="H21">
         <v>1</v>
@@ -3002,19 +3193,22 @@
         <v>160020</v>
       </c>
       <c r="B22" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C22">
         <v>8</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="E22">
         <v>39</v>
       </c>
       <c r="F22" t="s">
-        <v>205</v>
+        <v>203</v>
+      </c>
+      <c r="G22" t="s">
+        <v>228</v>
       </c>
       <c r="H22">
         <v>1</v>
@@ -3037,19 +3231,22 @@
         <v>160021</v>
       </c>
       <c r="B23" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C23">
         <v>9</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="E23">
         <v>40</v>
       </c>
       <c r="F23" t="s">
-        <v>205</v>
+        <v>203</v>
+      </c>
+      <c r="G23" t="s">
+        <v>229</v>
       </c>
       <c r="H23">
         <v>1</v>
@@ -3072,19 +3269,22 @@
         <v>160022</v>
       </c>
       <c r="B24" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C24">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="E24">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F24" t="s">
-        <v>205</v>
+        <v>203</v>
+      </c>
+      <c r="G24" t="s">
+        <v>230</v>
       </c>
       <c r="H24">
         <v>1</v>
@@ -3107,19 +3307,22 @@
         <v>160023</v>
       </c>
       <c r="B25" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C25">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="E25">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F25" t="s">
-        <v>205</v>
+        <v>203</v>
+      </c>
+      <c r="G25" t="s">
+        <v>231</v>
       </c>
       <c r="H25">
         <v>1</v>
@@ -3142,19 +3345,22 @@
         <v>160024</v>
       </c>
       <c r="B26" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="C26">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="E26">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="F26" t="s">
-        <v>205</v>
+        <v>203</v>
+      </c>
+      <c r="G26" t="s">
+        <v>232</v>
       </c>
       <c r="H26">
         <v>1</v>
@@ -3177,19 +3383,22 @@
         <v>160025</v>
       </c>
       <c r="B27" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C27">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="E27">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="F27" t="s">
-        <v>205</v>
+        <v>203</v>
+      </c>
+      <c r="G27" t="s">
+        <v>233</v>
       </c>
       <c r="H27">
         <v>1</v>
@@ -3212,19 +3421,22 @@
         <v>160026</v>
       </c>
       <c r="B28" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C28">
         <v>14</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="E28">
         <v>45</v>
       </c>
       <c r="F28" t="s">
-        <v>205</v>
+        <v>203</v>
+      </c>
+      <c r="G28" t="s">
+        <v>234</v>
       </c>
       <c r="H28">
         <v>1</v>
@@ -3247,19 +3459,22 @@
         <v>160027</v>
       </c>
       <c r="B29" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C29">
         <v>15</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="E29">
         <v>46</v>
       </c>
       <c r="F29" t="s">
-        <v>205</v>
+        <v>203</v>
+      </c>
+      <c r="G29" t="s">
+        <v>235</v>
       </c>
       <c r="H29">
         <v>1</v>
@@ -3282,19 +3497,22 @@
         <v>160028</v>
       </c>
       <c r="B30" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="C30">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="E30">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="F30" t="s">
-        <v>205</v>
+        <v>203</v>
+      </c>
+      <c r="G30" t="s">
+        <v>236</v>
       </c>
       <c r="H30">
         <v>1</v>
@@ -3317,19 +3535,22 @@
         <v>160029</v>
       </c>
       <c r="B31" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C31">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="E31">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F31" t="s">
-        <v>205</v>
+        <v>203</v>
+      </c>
+      <c r="G31" t="s">
+        <v>237</v>
       </c>
       <c r="H31">
         <v>1</v>
@@ -3352,19 +3573,22 @@
         <v>160030</v>
       </c>
       <c r="B32" t="s">
+        <v>202</v>
+      </c>
+      <c r="C32">
+        <v>19</v>
+      </c>
+      <c r="D32" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="E32">
+        <v>50</v>
+      </c>
+      <c r="F32" t="s">
         <v>203</v>
       </c>
-      <c r="C32">
-        <v>18</v>
-      </c>
-      <c r="D32" s="4" t="s">
-        <v>208</v>
-      </c>
-      <c r="E32">
-        <v>49</v>
-      </c>
-      <c r="F32" t="s">
-        <v>205</v>
+      <c r="G32" t="s">
+        <v>238</v>
       </c>
       <c r="H32">
         <v>1</v>
@@ -3387,19 +3611,22 @@
         <v>160031</v>
       </c>
       <c r="B33" t="s">
-        <v>204</v>
+        <v>191</v>
       </c>
       <c r="C33">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="E33">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="F33" t="s">
-        <v>205</v>
+        <v>203</v>
+      </c>
+      <c r="G33" t="s">
+        <v>239</v>
       </c>
       <c r="H33">
         <v>1</v>
@@ -3422,19 +3649,22 @@
         <v>160032</v>
       </c>
       <c r="B34" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C34">
         <v>10</v>
       </c>
       <c r="D34" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="E34">
         <v>10</v>
       </c>
       <c r="F34" t="s">
-        <v>226</v>
+        <v>224</v>
+      </c>
+      <c r="G34" t="s">
+        <v>240</v>
       </c>
       <c r="H34">
         <v>2</v>
@@ -3457,19 +3687,22 @@
         <v>160033</v>
       </c>
       <c r="B35" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="C35">
         <v>11</v>
       </c>
       <c r="D35" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="E35">
         <v>11</v>
       </c>
       <c r="F35" t="s">
-        <v>226</v>
+        <v>224</v>
+      </c>
+      <c r="G35" t="s">
+        <v>241</v>
       </c>
       <c r="H35">
         <v>2</v>
@@ -3492,19 +3725,22 @@
         <v>160034</v>
       </c>
       <c r="B36" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="C36">
         <v>12</v>
       </c>
       <c r="D36" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="E36">
         <v>12</v>
       </c>
       <c r="F36" t="s">
-        <v>226</v>
+        <v>224</v>
+      </c>
+      <c r="G36" t="s">
+        <v>242</v>
       </c>
       <c r="H36">
         <v>2</v>
@@ -3527,19 +3763,22 @@
         <v>160035</v>
       </c>
       <c r="B37" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="C37">
         <v>13</v>
       </c>
       <c r="D37" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="E37">
         <v>13</v>
       </c>
       <c r="F37" t="s">
-        <v>226</v>
+        <v>224</v>
+      </c>
+      <c r="G37" t="s">
+        <v>243</v>
       </c>
       <c r="H37">
         <v>2</v>
@@ -3562,19 +3801,22 @@
         <v>160036</v>
       </c>
       <c r="B38" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="C38">
         <v>14</v>
       </c>
       <c r="D38" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="E38">
         <v>14</v>
       </c>
       <c r="F38" t="s">
-        <v>226</v>
+        <v>224</v>
+      </c>
+      <c r="G38" t="s">
+        <v>244</v>
       </c>
       <c r="H38">
         <v>2</v>
@@ -3597,19 +3839,22 @@
         <v>160037</v>
       </c>
       <c r="B39" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="C39">
         <v>15</v>
       </c>
       <c r="D39" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="E39">
         <v>15</v>
       </c>
       <c r="F39" t="s">
-        <v>226</v>
+        <v>224</v>
+      </c>
+      <c r="G39" t="s">
+        <v>245</v>
       </c>
       <c r="H39">
         <v>2</v>
@@ -3632,19 +3877,22 @@
         <v>160038</v>
       </c>
       <c r="B40" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C40">
         <v>16</v>
       </c>
       <c r="D40" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="E40">
         <v>16</v>
       </c>
       <c r="F40" t="s">
-        <v>226</v>
+        <v>224</v>
+      </c>
+      <c r="G40" t="s">
+        <v>246</v>
       </c>
       <c r="H40">
         <v>2</v>
@@ -3667,19 +3915,22 @@
         <v>160039</v>
       </c>
       <c r="B41" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="C41">
         <v>17</v>
       </c>
       <c r="D41" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="E41">
         <v>17</v>
       </c>
       <c r="F41" t="s">
-        <v>226</v>
+        <v>224</v>
+      </c>
+      <c r="G41" t="s">
+        <v>247</v>
       </c>
       <c r="H41">
         <v>2</v>
@@ -3702,19 +3953,22 @@
         <v>160040</v>
       </c>
       <c r="B42" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C42">
         <v>18</v>
       </c>
       <c r="D42" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="E42">
         <v>18</v>
       </c>
       <c r="F42" t="s">
-        <v>226</v>
+        <v>224</v>
+      </c>
+      <c r="G42" t="s">
+        <v>248</v>
       </c>
       <c r="H42">
         <v>2</v>
@@ -3737,19 +3991,22 @@
         <v>160041</v>
       </c>
       <c r="B43" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="C43">
         <v>19</v>
       </c>
       <c r="D43" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="E43">
         <v>19</v>
       </c>
       <c r="F43" t="s">
-        <v>226</v>
+        <v>224</v>
+      </c>
+      <c r="G43" t="s">
+        <v>249</v>
       </c>
       <c r="H43">
         <v>2</v>
@@ -3772,19 +4029,22 @@
         <v>160042</v>
       </c>
       <c r="B44" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="C44">
         <v>20</v>
       </c>
       <c r="D44" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="E44">
         <v>20</v>
       </c>
       <c r="F44" t="s">
-        <v>226</v>
+        <v>224</v>
+      </c>
+      <c r="G44" t="s">
+        <v>250</v>
       </c>
       <c r="H44">
         <v>2</v>
@@ -3807,19 +4067,22 @@
         <v>160043</v>
       </c>
       <c r="B45" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="C45">
         <v>21</v>
       </c>
       <c r="D45" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="E45">
         <v>21</v>
       </c>
       <c r="F45" t="s">
-        <v>226</v>
+        <v>224</v>
+      </c>
+      <c r="G45" t="s">
+        <v>251</v>
       </c>
       <c r="H45">
         <v>2</v>
@@ -3842,19 +4105,22 @@
         <v>160044</v>
       </c>
       <c r="B46" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="C46">
         <v>22</v>
       </c>
       <c r="D46" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="E46">
         <v>22</v>
       </c>
       <c r="F46" t="s">
-        <v>226</v>
+        <v>224</v>
+      </c>
+      <c r="G46" t="s">
+        <v>252</v>
       </c>
       <c r="H46">
         <v>2</v>
@@ -3877,19 +4143,22 @@
         <v>160045</v>
       </c>
       <c r="B47" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="C47">
         <v>23</v>
       </c>
       <c r="D47" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="E47">
         <v>23</v>
       </c>
       <c r="F47" t="s">
-        <v>226</v>
+        <v>224</v>
+      </c>
+      <c r="G47" t="s">
+        <v>253</v>
       </c>
       <c r="H47">
         <v>2</v>
@@ -3912,19 +4181,22 @@
         <v>160046</v>
       </c>
       <c r="B48" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="C48">
         <v>24</v>
       </c>
       <c r="D48" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="E48">
         <v>24</v>
       </c>
       <c r="F48" t="s">
-        <v>226</v>
+        <v>224</v>
+      </c>
+      <c r="G48" t="s">
+        <v>254</v>
       </c>
       <c r="H48">
         <v>2</v>
@@ -3947,19 +4219,22 @@
         <v>160047</v>
       </c>
       <c r="B49" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C49">
         <v>25</v>
       </c>
       <c r="D49" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="E49">
         <v>25</v>
       </c>
       <c r="F49" t="s">
-        <v>226</v>
+        <v>224</v>
+      </c>
+      <c r="G49" t="s">
+        <v>255</v>
       </c>
       <c r="H49">
         <v>2</v>
@@ -4026,24 +4301,24 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C2" t="s">
         <v>52</v>
-      </c>
-      <c r="B2" t="s">
-        <v>48</v>
-      </c>
-      <c r="C2" t="s">
-        <v>53</v>
       </c>
       <c r="D2" t="s">
         <v>45</v>
       </c>
       <c r="E2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F2" t="s">
         <v>22</v>

--- a/Data/Excel Spreadsheet for all database.xlsx
+++ b/Data/Excel Spreadsheet for all database.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sakri\Documents\GitHub\Group3\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FD9AB9D-8F1A-476F-9F03-2B4C44BD3E51}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87914560-DED7-4CE9-BAAF-CC13CECB8872}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="688" firstSheet="1" activeTab="7" xr2:uid="{5BE2676A-B838-423E-A028-24E9E443D268}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="688" firstSheet="1" activeTab="8" xr2:uid="{5BE2676A-B838-423E-A028-24E9E443D268}"/>
   </bookViews>
   <sheets>
     <sheet name="User" sheetId="1" r:id="rId1"/>
@@ -21,13 +21,14 @@
     <sheet name="Shop" sheetId="6" r:id="rId6"/>
     <sheet name="Category" sheetId="7" r:id="rId7"/>
     <sheet name="Sheet1" sheetId="16" r:id="rId8"/>
-    <sheet name="Product" sheetId="8" r:id="rId9"/>
-    <sheet name="Cart" sheetId="9" r:id="rId10"/>
-    <sheet name="Order" sheetId="10" r:id="rId11"/>
-    <sheet name="Payment" sheetId="11" r:id="rId12"/>
-    <sheet name="Invoice" sheetId="12" r:id="rId13"/>
-    <sheet name="Review" sheetId="13" r:id="rId14"/>
-    <sheet name="CollectionSlot" sheetId="15" r:id="rId15"/>
+    <sheet name="Sheet2" sheetId="17" r:id="rId9"/>
+    <sheet name="Product" sheetId="8" r:id="rId10"/>
+    <sheet name="Cart" sheetId="9" r:id="rId11"/>
+    <sheet name="Order" sheetId="10" r:id="rId12"/>
+    <sheet name="Payment" sheetId="11" r:id="rId13"/>
+    <sheet name="Invoice" sheetId="12" r:id="rId14"/>
+    <sheet name="Review" sheetId="13" r:id="rId15"/>
+    <sheet name="CollectionSlot" sheetId="15" r:id="rId16"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -45,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="495" uniqueCount="346">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="769" uniqueCount="372">
   <si>
     <t>User</t>
   </si>
@@ -716,9 +717,6 @@
     <t>Butterscotch Cake</t>
   </si>
   <si>
-    <t>Vlentine Cake</t>
-  </si>
-  <si>
     <t>Cake is a form of sweet food made from flour, sugar, and other ingredients, that is usually baked. In their oldest forms, cakes were modifications of bread</t>
   </si>
   <si>
@@ -1095,6 +1093,87 @@
   </si>
   <si>
     <t>Birminghan</t>
+  </si>
+  <si>
+    <t>PRODUCTID</t>
+  </si>
+  <si>
+    <t>PRODUCTNAME</t>
+  </si>
+  <si>
+    <t>PRODUCTPRICE</t>
+  </si>
+  <si>
+    <t>PRODUCTDESCRIPTION</t>
+  </si>
+  <si>
+    <t>PRODUCTSTOCK</t>
+  </si>
+  <si>
+    <t>ALLERGYINFORMATION</t>
+  </si>
+  <si>
+    <t>PRODUCTIMAGE</t>
+  </si>
+  <si>
+    <t>MINIMUMORDER</t>
+  </si>
+  <si>
+    <t>MAXIMUMORDER</t>
+  </si>
+  <si>
+    <t>PRODUCT_DISCOUNT_PERCENT</t>
+  </si>
+  <si>
+    <t>PRODUCT_SHOP_ID</t>
+  </si>
+  <si>
+    <t>CATEGORYID</t>
+  </si>
+  <si>
+    <t>Valentine Cake</t>
+  </si>
+  <si>
+    <t>image/product/cheese/feta.jpg</t>
+  </si>
+  <si>
+    <t>SEQ_PRODUCT.nextval</t>
+  </si>
+  <si>
+    <t>Meat Loaf</t>
+  </si>
+  <si>
+    <t>Meat slow cooked to perfection for any sandwich</t>
+  </si>
+  <si>
+    <t>Meat Product</t>
+  </si>
+  <si>
+    <t>image/product/coldmeat/loaf.jpg</t>
+  </si>
+  <si>
+    <t>image/product/coldmeat/roast.jpg</t>
+  </si>
+  <si>
+    <t>image/product/coldmeat/peppeoroni.jpg</t>
+  </si>
+  <si>
+    <t>image/product/coldmeat/pro.jpg</t>
+  </si>
+  <si>
+    <t>image/product/coldmeat/salami.jpg</t>
+  </si>
+  <si>
+    <t>Meat Roast</t>
+  </si>
+  <si>
+    <t>Peppoeoroni</t>
+  </si>
+  <si>
+    <t>Prosuchitto</t>
+  </si>
+  <si>
+    <t>Salami</t>
   </si>
 </sst>
 </file>
@@ -1543,6 +1622,1815 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73103244-3CE0-428D-8FF1-D2254FF786FD}">
+  <dimension ref="A1:L54"/>
+  <sheetViews>
+    <sheetView topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J3" sqref="J3:J49"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="21.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="133.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.42578125" customWidth="1"/>
+    <col min="6" max="6" width="45.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="36.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13" customWidth="1"/>
+    <col min="9" max="9" width="13.85546875" customWidth="1"/>
+    <col min="10" max="10" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D2" t="s">
+        <v>253</v>
+      </c>
+      <c r="E2" t="s">
+        <v>45</v>
+      </c>
+      <c r="F2" t="s">
+        <v>252</v>
+      </c>
+      <c r="G2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" t="s">
+        <v>278</v>
+      </c>
+      <c r="J2" t="s">
+        <v>48</v>
+      </c>
+      <c r="K2" t="s">
+        <v>279</v>
+      </c>
+      <c r="L2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>160001</v>
+      </c>
+      <c r="B3" t="s">
+        <v>79</v>
+      </c>
+      <c r="C3">
+        <v>11</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="E3">
+        <v>20</v>
+      </c>
+      <c r="F3" t="s">
+        <v>91</v>
+      </c>
+      <c r="G3" t="s">
+        <v>254</v>
+      </c>
+      <c r="H3">
+        <v>1</v>
+      </c>
+      <c r="I3">
+        <v>5</v>
+      </c>
+      <c r="J3">
+        <v>5</v>
+      </c>
+      <c r="K3">
+        <v>190003</v>
+      </c>
+      <c r="L3">
+        <v>310005</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>160002</v>
+      </c>
+      <c r="B4" t="s">
+        <v>80</v>
+      </c>
+      <c r="C4">
+        <v>45</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="E4">
+        <v>21</v>
+      </c>
+      <c r="F4" t="s">
+        <v>91</v>
+      </c>
+      <c r="G4" t="s">
+        <v>261</v>
+      </c>
+      <c r="H4">
+        <v>1</v>
+      </c>
+      <c r="I4">
+        <v>5</v>
+      </c>
+      <c r="J4">
+        <v>5</v>
+      </c>
+      <c r="K4">
+        <v>190003</v>
+      </c>
+      <c r="L4">
+        <v>310005</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>160003</v>
+      </c>
+      <c r="B5" t="s">
+        <v>81</v>
+      </c>
+      <c r="C5">
+        <v>43</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="E5">
+        <v>22</v>
+      </c>
+      <c r="F5" t="s">
+        <v>91</v>
+      </c>
+      <c r="G5" t="s">
+        <v>262</v>
+      </c>
+      <c r="H5">
+        <v>1</v>
+      </c>
+      <c r="I5">
+        <v>5</v>
+      </c>
+      <c r="J5">
+        <v>5</v>
+      </c>
+      <c r="K5">
+        <v>190003</v>
+      </c>
+      <c r="L5">
+        <v>310005</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>160004</v>
+      </c>
+      <c r="B6" t="s">
+        <v>82</v>
+      </c>
+      <c r="C6">
+        <v>78</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="E6">
+        <v>23</v>
+      </c>
+      <c r="F6" t="s">
+        <v>91</v>
+      </c>
+      <c r="G6" t="s">
+        <v>263</v>
+      </c>
+      <c r="H6">
+        <v>1</v>
+      </c>
+      <c r="I6">
+        <v>5</v>
+      </c>
+      <c r="J6">
+        <v>5</v>
+      </c>
+      <c r="K6">
+        <v>190003</v>
+      </c>
+      <c r="L6">
+        <v>310005</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>160005</v>
+      </c>
+      <c r="B7" t="s">
+        <v>83</v>
+      </c>
+      <c r="C7">
+        <v>75</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="E7">
+        <v>24</v>
+      </c>
+      <c r="F7" t="s">
+        <v>91</v>
+      </c>
+      <c r="G7" t="s">
+        <v>264</v>
+      </c>
+      <c r="H7">
+        <v>1</v>
+      </c>
+      <c r="I7">
+        <v>5</v>
+      </c>
+      <c r="J7">
+        <v>5</v>
+      </c>
+      <c r="K7">
+        <v>190003</v>
+      </c>
+      <c r="L7">
+        <v>310005</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>160006</v>
+      </c>
+      <c r="B8" t="s">
+        <v>84</v>
+      </c>
+      <c r="C8">
+        <v>12</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="E8">
+        <v>25</v>
+      </c>
+      <c r="F8" t="s">
+        <v>91</v>
+      </c>
+      <c r="G8" t="s">
+        <v>265</v>
+      </c>
+      <c r="H8">
+        <v>1</v>
+      </c>
+      <c r="I8">
+        <v>5</v>
+      </c>
+      <c r="J8">
+        <v>5</v>
+      </c>
+      <c r="K8">
+        <v>190003</v>
+      </c>
+      <c r="L8">
+        <v>310005</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>160007</v>
+      </c>
+      <c r="B9" t="s">
+        <v>85</v>
+      </c>
+      <c r="C9">
+        <v>45</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="E9">
+        <v>26</v>
+      </c>
+      <c r="F9" t="s">
+        <v>91</v>
+      </c>
+      <c r="G9" t="s">
+        <v>255</v>
+      </c>
+      <c r="H9">
+        <v>1</v>
+      </c>
+      <c r="I9">
+        <v>5</v>
+      </c>
+      <c r="J9">
+        <v>5</v>
+      </c>
+      <c r="K9">
+        <v>190003</v>
+      </c>
+      <c r="L9">
+        <v>310005</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>160008</v>
+      </c>
+      <c r="B10" t="s">
+        <v>86</v>
+      </c>
+      <c r="C10">
+        <v>58</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="E10">
+        <v>27</v>
+      </c>
+      <c r="F10" t="s">
+        <v>91</v>
+      </c>
+      <c r="G10" t="s">
+        <v>266</v>
+      </c>
+      <c r="H10">
+        <v>1</v>
+      </c>
+      <c r="I10">
+        <v>5</v>
+      </c>
+      <c r="J10">
+        <v>5</v>
+      </c>
+      <c r="K10">
+        <v>190003</v>
+      </c>
+      <c r="L10">
+        <v>310005</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>160009</v>
+      </c>
+      <c r="B11" t="s">
+        <v>87</v>
+      </c>
+      <c r="C11">
+        <v>89</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="E11">
+        <v>28</v>
+      </c>
+      <c r="F11" t="s">
+        <v>91</v>
+      </c>
+      <c r="G11" t="s">
+        <v>256</v>
+      </c>
+      <c r="H11">
+        <v>1</v>
+      </c>
+      <c r="I11">
+        <v>5</v>
+      </c>
+      <c r="J11">
+        <v>5</v>
+      </c>
+      <c r="K11">
+        <v>190004</v>
+      </c>
+      <c r="L11">
+        <v>310005</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>160010</v>
+      </c>
+      <c r="B12" t="s">
+        <v>88</v>
+      </c>
+      <c r="C12">
+        <v>20</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="E12">
+        <v>29</v>
+      </c>
+      <c r="F12" t="s">
+        <v>91</v>
+      </c>
+      <c r="G12" t="s">
+        <v>267</v>
+      </c>
+      <c r="H12">
+        <v>1</v>
+      </c>
+      <c r="I12">
+        <v>5</v>
+      </c>
+      <c r="J12">
+        <v>5</v>
+      </c>
+      <c r="K12">
+        <v>190004</v>
+      </c>
+      <c r="L12">
+        <v>310005</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>160011</v>
+      </c>
+      <c r="B13" t="s">
+        <v>89</v>
+      </c>
+      <c r="C13">
+        <v>51</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="E13">
+        <v>30</v>
+      </c>
+      <c r="F13" t="s">
+        <v>91</v>
+      </c>
+      <c r="G13" t="s">
+        <v>268</v>
+      </c>
+      <c r="H13">
+        <v>1</v>
+      </c>
+      <c r="I13">
+        <v>5</v>
+      </c>
+      <c r="J13">
+        <v>5</v>
+      </c>
+      <c r="K13">
+        <v>190004</v>
+      </c>
+      <c r="L13">
+        <v>310005</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>160012</v>
+      </c>
+      <c r="B14" t="s">
+        <v>90</v>
+      </c>
+      <c r="C14">
+        <v>32</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="E14">
+        <v>31</v>
+      </c>
+      <c r="F14" t="s">
+        <v>91</v>
+      </c>
+      <c r="G14" t="s">
+        <v>257</v>
+      </c>
+      <c r="H14">
+        <v>1</v>
+      </c>
+      <c r="I14">
+        <v>5</v>
+      </c>
+      <c r="J14">
+        <v>5</v>
+      </c>
+      <c r="K14">
+        <v>190004</v>
+      </c>
+      <c r="L14">
+        <v>310005</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>160013</v>
+      </c>
+      <c r="B15" t="s">
+        <v>92</v>
+      </c>
+      <c r="C15">
+        <v>33</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="E15">
+        <v>32</v>
+      </c>
+      <c r="F15" t="s">
+        <v>91</v>
+      </c>
+      <c r="G15" t="s">
+        <v>258</v>
+      </c>
+      <c r="H15">
+        <v>1</v>
+      </c>
+      <c r="J15">
+        <v>5</v>
+      </c>
+      <c r="K15">
+        <v>190004</v>
+      </c>
+      <c r="L15">
+        <v>310005</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>160014</v>
+      </c>
+      <c r="B16" t="s">
+        <v>93</v>
+      </c>
+      <c r="C16">
+        <v>34</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="E16">
+        <v>33</v>
+      </c>
+      <c r="F16" t="s">
+        <v>91</v>
+      </c>
+      <c r="G16" t="s">
+        <v>259</v>
+      </c>
+      <c r="H16">
+        <v>1</v>
+      </c>
+      <c r="J16">
+        <v>5</v>
+      </c>
+      <c r="K16">
+        <v>190004</v>
+      </c>
+      <c r="L16">
+        <v>310005</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>160015</v>
+      </c>
+      <c r="B17" t="s">
+        <v>94</v>
+      </c>
+      <c r="C17">
+        <v>35</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="E17">
+        <v>34</v>
+      </c>
+      <c r="F17" t="s">
+        <v>91</v>
+      </c>
+      <c r="G17" t="s">
+        <v>260</v>
+      </c>
+      <c r="H17">
+        <v>1</v>
+      </c>
+      <c r="J17">
+        <v>5</v>
+      </c>
+      <c r="K17">
+        <v>190004</v>
+      </c>
+      <c r="L17">
+        <v>310005</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>160016</v>
+      </c>
+      <c r="B18" t="s">
+        <v>95</v>
+      </c>
+      <c r="C18">
+        <v>36</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="E18">
+        <v>35</v>
+      </c>
+      <c r="F18" t="s">
+        <v>91</v>
+      </c>
+      <c r="G18" t="s">
+        <v>269</v>
+      </c>
+      <c r="H18">
+        <v>1</v>
+      </c>
+      <c r="J18">
+        <v>5</v>
+      </c>
+      <c r="K18">
+        <v>190004</v>
+      </c>
+      <c r="L18">
+        <v>310005</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>160017</v>
+      </c>
+      <c r="B19" t="s">
+        <v>185</v>
+      </c>
+      <c r="C19">
+        <v>5</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="E19">
+        <v>36</v>
+      </c>
+      <c r="F19" t="s">
+        <v>200</v>
+      </c>
+      <c r="G19" t="s">
+        <v>221</v>
+      </c>
+      <c r="H19">
+        <v>1</v>
+      </c>
+      <c r="J19">
+        <v>5</v>
+      </c>
+      <c r="K19">
+        <v>190010</v>
+      </c>
+      <c r="L19">
+        <v>310006</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>160018</v>
+      </c>
+      <c r="B20" t="s">
+        <v>186</v>
+      </c>
+      <c r="C20">
+        <v>6</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="E20">
+        <v>37</v>
+      </c>
+      <c r="F20" t="s">
+        <v>200</v>
+      </c>
+      <c r="G20" t="s">
+        <v>222</v>
+      </c>
+      <c r="H20">
+        <v>1</v>
+      </c>
+      <c r="J20">
+        <v>5</v>
+      </c>
+      <c r="K20">
+        <v>190010</v>
+      </c>
+      <c r="L20">
+        <v>310006</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>160019</v>
+      </c>
+      <c r="B21" t="s">
+        <v>187</v>
+      </c>
+      <c r="C21">
+        <v>7</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="E21">
+        <v>38</v>
+      </c>
+      <c r="F21" t="s">
+        <v>200</v>
+      </c>
+      <c r="G21" t="s">
+        <v>223</v>
+      </c>
+      <c r="H21">
+        <v>1</v>
+      </c>
+      <c r="J21">
+        <v>5</v>
+      </c>
+      <c r="K21">
+        <v>190010</v>
+      </c>
+      <c r="L21">
+        <v>310006</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>160020</v>
+      </c>
+      <c r="B22" t="s">
+        <v>190</v>
+      </c>
+      <c r="C22">
+        <v>8</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="E22">
+        <v>39</v>
+      </c>
+      <c r="F22" t="s">
+        <v>200</v>
+      </c>
+      <c r="G22" t="s">
+        <v>224</v>
+      </c>
+      <c r="H22">
+        <v>1</v>
+      </c>
+      <c r="J22">
+        <v>5</v>
+      </c>
+      <c r="K22">
+        <v>190010</v>
+      </c>
+      <c r="L22">
+        <v>310006</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>160021</v>
+      </c>
+      <c r="B23" t="s">
+        <v>189</v>
+      </c>
+      <c r="C23">
+        <v>9</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="E23">
+        <v>40</v>
+      </c>
+      <c r="F23" t="s">
+        <v>200</v>
+      </c>
+      <c r="G23" t="s">
+        <v>225</v>
+      </c>
+      <c r="H23">
+        <v>1</v>
+      </c>
+      <c r="J23">
+        <v>5</v>
+      </c>
+      <c r="K23">
+        <v>190010</v>
+      </c>
+      <c r="L23">
+        <v>310006</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>160022</v>
+      </c>
+      <c r="B24" t="s">
+        <v>191</v>
+      </c>
+      <c r="C24">
+        <v>11</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="E24">
+        <v>42</v>
+      </c>
+      <c r="F24" t="s">
+        <v>200</v>
+      </c>
+      <c r="G24" t="s">
+        <v>226</v>
+      </c>
+      <c r="H24">
+        <v>1</v>
+      </c>
+      <c r="J24">
+        <v>5</v>
+      </c>
+      <c r="K24">
+        <v>190010</v>
+      </c>
+      <c r="L24">
+        <v>310006</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>160023</v>
+      </c>
+      <c r="B25" t="s">
+        <v>192</v>
+      </c>
+      <c r="C25">
+        <v>12</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="E25">
+        <v>43</v>
+      </c>
+      <c r="F25" t="s">
+        <v>200</v>
+      </c>
+      <c r="G25" t="s">
+        <v>227</v>
+      </c>
+      <c r="H25">
+        <v>1</v>
+      </c>
+      <c r="J25">
+        <v>5</v>
+      </c>
+      <c r="K25">
+        <v>190010</v>
+      </c>
+      <c r="L25">
+        <v>310006</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>160024</v>
+      </c>
+      <c r="B26" t="s">
+        <v>197</v>
+      </c>
+      <c r="C26">
+        <v>17</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="E26">
+        <v>48</v>
+      </c>
+      <c r="F26" t="s">
+        <v>200</v>
+      </c>
+      <c r="G26" t="s">
+        <v>228</v>
+      </c>
+      <c r="H26">
+        <v>1</v>
+      </c>
+      <c r="J26">
+        <v>5</v>
+      </c>
+      <c r="K26">
+        <v>190010</v>
+      </c>
+      <c r="L26">
+        <v>310006</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>160025</v>
+      </c>
+      <c r="B27" t="s">
+        <v>196</v>
+      </c>
+      <c r="C27">
+        <v>16</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="E27">
+        <v>47</v>
+      </c>
+      <c r="F27" t="s">
+        <v>200</v>
+      </c>
+      <c r="G27" t="s">
+        <v>229</v>
+      </c>
+      <c r="H27">
+        <v>1</v>
+      </c>
+      <c r="J27">
+        <v>5</v>
+      </c>
+      <c r="K27">
+        <v>190010</v>
+      </c>
+      <c r="L27">
+        <v>310006</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>160026</v>
+      </c>
+      <c r="B28" t="s">
+        <v>194</v>
+      </c>
+      <c r="C28">
+        <v>14</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="E28">
+        <v>45</v>
+      </c>
+      <c r="F28" t="s">
+        <v>200</v>
+      </c>
+      <c r="G28" t="s">
+        <v>230</v>
+      </c>
+      <c r="H28">
+        <v>1</v>
+      </c>
+      <c r="J28">
+        <v>5</v>
+      </c>
+      <c r="K28">
+        <v>190010</v>
+      </c>
+      <c r="L28">
+        <v>310006</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>160027</v>
+      </c>
+      <c r="B29" t="s">
+        <v>195</v>
+      </c>
+      <c r="C29">
+        <v>15</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="E29">
+        <v>46</v>
+      </c>
+      <c r="F29" t="s">
+        <v>200</v>
+      </c>
+      <c r="G29" t="s">
+        <v>231</v>
+      </c>
+      <c r="H29">
+        <v>1</v>
+      </c>
+      <c r="J29">
+        <v>5</v>
+      </c>
+      <c r="K29">
+        <v>190010</v>
+      </c>
+      <c r="L29">
+        <v>310006</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>160028</v>
+      </c>
+      <c r="B30" t="s">
+        <v>193</v>
+      </c>
+      <c r="C30">
+        <v>13</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="E30">
+        <v>44</v>
+      </c>
+      <c r="F30" t="s">
+        <v>200</v>
+      </c>
+      <c r="G30" t="s">
+        <v>232</v>
+      </c>
+      <c r="H30">
+        <v>1</v>
+      </c>
+      <c r="J30">
+        <v>5</v>
+      </c>
+      <c r="K30">
+        <v>190010</v>
+      </c>
+      <c r="L30">
+        <v>310006</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>160029</v>
+      </c>
+      <c r="B31" t="s">
+        <v>198</v>
+      </c>
+      <c r="C31">
+        <v>18</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="E31">
+        <v>49</v>
+      </c>
+      <c r="F31" t="s">
+        <v>200</v>
+      </c>
+      <c r="G31" t="s">
+        <v>233</v>
+      </c>
+      <c r="H31">
+        <v>1</v>
+      </c>
+      <c r="I31">
+        <v>5</v>
+      </c>
+      <c r="J31">
+        <v>5</v>
+      </c>
+      <c r="K31">
+        <v>190010</v>
+      </c>
+      <c r="L31">
+        <v>310006</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>160030</v>
+      </c>
+      <c r="B32" t="s">
+        <v>199</v>
+      </c>
+      <c r="C32">
+        <v>19</v>
+      </c>
+      <c r="D32" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="E32">
+        <v>50</v>
+      </c>
+      <c r="F32" t="s">
+        <v>200</v>
+      </c>
+      <c r="G32" t="s">
+        <v>234</v>
+      </c>
+      <c r="H32">
+        <v>1</v>
+      </c>
+      <c r="I32">
+        <v>5</v>
+      </c>
+      <c r="J32">
+        <v>5</v>
+      </c>
+      <c r="K32">
+        <v>190010</v>
+      </c>
+      <c r="L32">
+        <v>310006</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>160031</v>
+      </c>
+      <c r="B33" t="s">
+        <v>188</v>
+      </c>
+      <c r="C33">
+        <v>10</v>
+      </c>
+      <c r="D33" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="E33">
+        <v>41</v>
+      </c>
+      <c r="F33" t="s">
+        <v>200</v>
+      </c>
+      <c r="G33" t="s">
+        <v>235</v>
+      </c>
+      <c r="H33">
+        <v>1</v>
+      </c>
+      <c r="I33">
+        <v>5</v>
+      </c>
+      <c r="J33">
+        <v>5</v>
+      </c>
+      <c r="K33">
+        <v>190010</v>
+      </c>
+      <c r="L33">
+        <v>310006</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>160032</v>
+      </c>
+      <c r="B34" t="s">
+        <v>204</v>
+      </c>
+      <c r="C34">
+        <v>10</v>
+      </c>
+      <c r="D34" t="s">
+        <v>219</v>
+      </c>
+      <c r="E34">
+        <v>10</v>
+      </c>
+      <c r="F34" t="s">
+        <v>220</v>
+      </c>
+      <c r="G34" t="s">
+        <v>236</v>
+      </c>
+      <c r="H34">
+        <v>2</v>
+      </c>
+      <c r="I34">
+        <v>5</v>
+      </c>
+      <c r="J34">
+        <v>10</v>
+      </c>
+      <c r="K34">
+        <v>190009</v>
+      </c>
+      <c r="L34">
+        <v>310006</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>160033</v>
+      </c>
+      <c r="B35" t="s">
+        <v>205</v>
+      </c>
+      <c r="C35">
+        <v>11</v>
+      </c>
+      <c r="D35" t="s">
+        <v>219</v>
+      </c>
+      <c r="E35">
+        <v>11</v>
+      </c>
+      <c r="F35" t="s">
+        <v>220</v>
+      </c>
+      <c r="G35" t="s">
+        <v>237</v>
+      </c>
+      <c r="H35">
+        <v>2</v>
+      </c>
+      <c r="I35">
+        <v>5</v>
+      </c>
+      <c r="J35">
+        <v>10</v>
+      </c>
+      <c r="K35">
+        <v>190009</v>
+      </c>
+      <c r="L35">
+        <v>310006</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>160034</v>
+      </c>
+      <c r="B36" t="s">
+        <v>206</v>
+      </c>
+      <c r="C36">
+        <v>12</v>
+      </c>
+      <c r="D36" t="s">
+        <v>219</v>
+      </c>
+      <c r="E36">
+        <v>12</v>
+      </c>
+      <c r="F36" t="s">
+        <v>220</v>
+      </c>
+      <c r="G36" t="s">
+        <v>238</v>
+      </c>
+      <c r="H36">
+        <v>2</v>
+      </c>
+      <c r="I36">
+        <v>5</v>
+      </c>
+      <c r="J36">
+        <v>10</v>
+      </c>
+      <c r="K36">
+        <v>190009</v>
+      </c>
+      <c r="L36">
+        <v>310006</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>160035</v>
+      </c>
+      <c r="B37" t="s">
+        <v>207</v>
+      </c>
+      <c r="C37">
+        <v>13</v>
+      </c>
+      <c r="D37" t="s">
+        <v>219</v>
+      </c>
+      <c r="E37">
+        <v>13</v>
+      </c>
+      <c r="F37" t="s">
+        <v>220</v>
+      </c>
+      <c r="G37" t="s">
+        <v>239</v>
+      </c>
+      <c r="H37">
+        <v>2</v>
+      </c>
+      <c r="I37">
+        <v>5</v>
+      </c>
+      <c r="J37">
+        <v>10</v>
+      </c>
+      <c r="K37">
+        <v>190009</v>
+      </c>
+      <c r="L37">
+        <v>310006</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>160036</v>
+      </c>
+      <c r="B38" t="s">
+        <v>208</v>
+      </c>
+      <c r="C38">
+        <v>14</v>
+      </c>
+      <c r="D38" t="s">
+        <v>219</v>
+      </c>
+      <c r="E38">
+        <v>14</v>
+      </c>
+      <c r="F38" t="s">
+        <v>220</v>
+      </c>
+      <c r="G38" t="s">
+        <v>240</v>
+      </c>
+      <c r="H38">
+        <v>2</v>
+      </c>
+      <c r="I38">
+        <v>5</v>
+      </c>
+      <c r="J38">
+        <v>10</v>
+      </c>
+      <c r="K38">
+        <v>190009</v>
+      </c>
+      <c r="L38">
+        <v>310006</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>160037</v>
+      </c>
+      <c r="B39" t="s">
+        <v>209</v>
+      </c>
+      <c r="C39">
+        <v>15</v>
+      </c>
+      <c r="D39" t="s">
+        <v>219</v>
+      </c>
+      <c r="E39">
+        <v>15</v>
+      </c>
+      <c r="F39" t="s">
+        <v>220</v>
+      </c>
+      <c r="G39" t="s">
+        <v>241</v>
+      </c>
+      <c r="H39">
+        <v>2</v>
+      </c>
+      <c r="I39">
+        <v>5</v>
+      </c>
+      <c r="J39">
+        <v>10</v>
+      </c>
+      <c r="K39">
+        <v>190009</v>
+      </c>
+      <c r="L39">
+        <v>310006</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>160038</v>
+      </c>
+      <c r="B40" t="s">
+        <v>210</v>
+      </c>
+      <c r="C40">
+        <v>16</v>
+      </c>
+      <c r="D40" t="s">
+        <v>219</v>
+      </c>
+      <c r="E40">
+        <v>16</v>
+      </c>
+      <c r="F40" t="s">
+        <v>220</v>
+      </c>
+      <c r="G40" t="s">
+        <v>242</v>
+      </c>
+      <c r="H40">
+        <v>2</v>
+      </c>
+      <c r="I40">
+        <v>5</v>
+      </c>
+      <c r="J40">
+        <v>10</v>
+      </c>
+      <c r="K40">
+        <v>190009</v>
+      </c>
+      <c r="L40">
+        <v>310006</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>160039</v>
+      </c>
+      <c r="B41" t="s">
+        <v>211</v>
+      </c>
+      <c r="C41">
+        <v>17</v>
+      </c>
+      <c r="D41" t="s">
+        <v>219</v>
+      </c>
+      <c r="E41">
+        <v>17</v>
+      </c>
+      <c r="F41" t="s">
+        <v>220</v>
+      </c>
+      <c r="G41" t="s">
+        <v>243</v>
+      </c>
+      <c r="H41">
+        <v>2</v>
+      </c>
+      <c r="I41">
+        <v>5</v>
+      </c>
+      <c r="J41">
+        <v>10</v>
+      </c>
+      <c r="K41">
+        <v>190009</v>
+      </c>
+      <c r="L41">
+        <v>310006</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>160040</v>
+      </c>
+      <c r="B42" t="s">
+        <v>212</v>
+      </c>
+      <c r="C42">
+        <v>18</v>
+      </c>
+      <c r="D42" t="s">
+        <v>219</v>
+      </c>
+      <c r="E42">
+        <v>18</v>
+      </c>
+      <c r="F42" t="s">
+        <v>220</v>
+      </c>
+      <c r="G42" t="s">
+        <v>244</v>
+      </c>
+      <c r="H42">
+        <v>2</v>
+      </c>
+      <c r="J42">
+        <v>10</v>
+      </c>
+      <c r="K42">
+        <v>190009</v>
+      </c>
+      <c r="L42">
+        <v>310006</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>160041</v>
+      </c>
+      <c r="B43" t="s">
+        <v>213</v>
+      </c>
+      <c r="C43">
+        <v>19</v>
+      </c>
+      <c r="D43" t="s">
+        <v>219</v>
+      </c>
+      <c r="E43">
+        <v>19</v>
+      </c>
+      <c r="F43" t="s">
+        <v>220</v>
+      </c>
+      <c r="G43" t="s">
+        <v>245</v>
+      </c>
+      <c r="H43">
+        <v>2</v>
+      </c>
+      <c r="J43">
+        <v>10</v>
+      </c>
+      <c r="K43">
+        <v>190009</v>
+      </c>
+      <c r="L43">
+        <v>310006</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>160042</v>
+      </c>
+      <c r="B44" t="s">
+        <v>214</v>
+      </c>
+      <c r="C44">
+        <v>20</v>
+      </c>
+      <c r="D44" t="s">
+        <v>219</v>
+      </c>
+      <c r="E44">
+        <v>20</v>
+      </c>
+      <c r="F44" t="s">
+        <v>220</v>
+      </c>
+      <c r="G44" t="s">
+        <v>246</v>
+      </c>
+      <c r="H44">
+        <v>2</v>
+      </c>
+      <c r="J44">
+        <v>10</v>
+      </c>
+      <c r="K44">
+        <v>190009</v>
+      </c>
+      <c r="L44">
+        <v>310006</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>160043</v>
+      </c>
+      <c r="B45" t="s">
+        <v>215</v>
+      </c>
+      <c r="C45">
+        <v>21</v>
+      </c>
+      <c r="D45" t="s">
+        <v>219</v>
+      </c>
+      <c r="E45">
+        <v>21</v>
+      </c>
+      <c r="F45" t="s">
+        <v>220</v>
+      </c>
+      <c r="G45" t="s">
+        <v>247</v>
+      </c>
+      <c r="H45">
+        <v>2</v>
+      </c>
+      <c r="J45">
+        <v>10</v>
+      </c>
+      <c r="K45">
+        <v>190009</v>
+      </c>
+      <c r="L45">
+        <v>310006</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>160044</v>
+      </c>
+      <c r="B46" t="s">
+        <v>216</v>
+      </c>
+      <c r="C46">
+        <v>22</v>
+      </c>
+      <c r="D46" t="s">
+        <v>219</v>
+      </c>
+      <c r="E46">
+        <v>22</v>
+      </c>
+      <c r="F46" t="s">
+        <v>220</v>
+      </c>
+      <c r="G46" t="s">
+        <v>248</v>
+      </c>
+      <c r="H46">
+        <v>2</v>
+      </c>
+      <c r="J46">
+        <v>10</v>
+      </c>
+      <c r="K46">
+        <v>190009</v>
+      </c>
+      <c r="L46">
+        <v>310006</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>160045</v>
+      </c>
+      <c r="B47" t="s">
+        <v>217</v>
+      </c>
+      <c r="C47">
+        <v>23</v>
+      </c>
+      <c r="D47" t="s">
+        <v>219</v>
+      </c>
+      <c r="E47">
+        <v>23</v>
+      </c>
+      <c r="F47" t="s">
+        <v>220</v>
+      </c>
+      <c r="G47" t="s">
+        <v>249</v>
+      </c>
+      <c r="H47">
+        <v>2</v>
+      </c>
+      <c r="J47">
+        <v>10</v>
+      </c>
+      <c r="K47">
+        <v>190009</v>
+      </c>
+      <c r="L47">
+        <v>310006</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>160046</v>
+      </c>
+      <c r="B48" t="s">
+        <v>218</v>
+      </c>
+      <c r="C48">
+        <v>24</v>
+      </c>
+      <c r="D48" t="s">
+        <v>219</v>
+      </c>
+      <c r="E48">
+        <v>24</v>
+      </c>
+      <c r="F48" t="s">
+        <v>220</v>
+      </c>
+      <c r="G48" t="s">
+        <v>250</v>
+      </c>
+      <c r="H48">
+        <v>2</v>
+      </c>
+      <c r="J48">
+        <v>10</v>
+      </c>
+      <c r="K48">
+        <v>190009</v>
+      </c>
+      <c r="L48">
+        <v>310006</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>160047</v>
+      </c>
+      <c r="B49" t="s">
+        <v>357</v>
+      </c>
+      <c r="C49">
+        <v>25</v>
+      </c>
+      <c r="D49" t="s">
+        <v>219</v>
+      </c>
+      <c r="E49">
+        <v>25</v>
+      </c>
+      <c r="F49" t="s">
+        <v>220</v>
+      </c>
+      <c r="G49" t="s">
+        <v>251</v>
+      </c>
+      <c r="H49">
+        <v>2</v>
+      </c>
+      <c r="J49">
+        <v>10</v>
+      </c>
+      <c r="K49">
+        <v>190009</v>
+      </c>
+      <c r="L49">
+        <v>310006</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>160048</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>160049</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>160050</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>160051</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>160052</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4AA7B082-A1DC-4FE4-BA70-5ED3D4C6C81F}">
   <dimension ref="A1:C5"/>
   <sheetViews>
@@ -1567,13 +3455,13 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>270</v>
+      </c>
+      <c r="B2" t="s">
         <v>271</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>272</v>
-      </c>
-      <c r="C2" t="s">
-        <v>273</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -1614,7 +3502,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CBF54B2-6D09-4EC6-9D9F-49DC6D95A617}">
   <dimension ref="A1:H3"/>
   <sheetViews>
@@ -1671,7 +3559,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9FD43FD6-0DA8-4C9C-BA21-70FD6EAF7AC7}">
   <dimension ref="A1:B3"/>
   <sheetViews>
@@ -1708,7 +3596,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1A2D205-E402-4D2F-9209-FAB0B1B7DC65}">
   <dimension ref="A1:E3"/>
   <sheetViews>
@@ -1757,7 +3645,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61F0F06D-BF67-4DB3-A1A6-06019E6F7168}">
   <dimension ref="A1:F5"/>
   <sheetViews>
@@ -1789,10 +3677,10 @@
         <v>34</v>
       </c>
       <c r="D2" t="s">
+        <v>273</v>
+      </c>
+      <c r="E2" t="s">
         <v>274</v>
-      </c>
-      <c r="E2" t="s">
-        <v>275</v>
       </c>
       <c r="F2" t="s">
         <v>67</v>
@@ -1809,7 +3697,7 @@
         <v>160001</v>
       </c>
       <c r="D3" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E3">
         <v>4</v>
@@ -1829,7 +3717,7 @@
         <v>160001</v>
       </c>
       <c r="D4" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E4">
         <v>4</v>
@@ -1849,7 +3737,7 @@
         <v>160001</v>
       </c>
       <c r="D5" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -1863,7 +3751,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F329ED14-84C5-4A2A-A784-5736BC6EFAF3}">
   <dimension ref="A1:C2"/>
   <sheetViews>
@@ -2771,7 +4659,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E8A3562-ED2E-4DC1-8575-712BD56A27B9}">
   <dimension ref="A1:M28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
@@ -2790,48 +4678,48 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="2" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
+        <v>280</v>
+      </c>
+      <c r="B2" s="6" t="s">
         <v>281</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="C2" s="6" t="s">
         <v>282</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="D2" s="6" t="s">
         <v>283</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="E2" s="6" t="s">
         <v>284</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="F2" s="6" t="s">
         <v>285</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="G2" s="6" t="s">
         <v>286</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="H2" s="6" t="s">
         <v>287</v>
       </c>
-      <c r="H2" s="6" t="s">
+      <c r="I2" s="6" t="s">
         <v>288</v>
       </c>
-      <c r="I2" s="6" t="s">
+      <c r="J2" s="6" t="s">
         <v>289</v>
       </c>
-      <c r="J2" s="6" t="s">
+      <c r="K2" s="6" t="s">
         <v>290</v>
       </c>
-      <c r="K2" s="6" t="s">
+      <c r="L2" s="6" t="s">
         <v>291</v>
       </c>
-      <c r="L2" s="6" t="s">
+      <c r="M2" s="6" t="s">
         <v>292</v>
-      </c>
-      <c r="M2" s="6" t="s">
-        <v>293</v>
       </c>
     </row>
     <row r="3" spans="1:13" ht="75" x14ac:dyDescent="0.25">
@@ -2845,16 +4733,16 @@
         <v>101</v>
       </c>
       <c r="D3" s="7" t="s">
+        <v>293</v>
+      </c>
+      <c r="E3" s="7" t="s">
         <v>294</v>
-      </c>
-      <c r="E3" s="7" t="s">
-        <v>295</v>
       </c>
       <c r="F3" s="7" t="s">
         <v>102</v>
       </c>
       <c r="G3" s="7" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="H3" s="7">
         <v>1</v>
@@ -2863,16 +4751,16 @@
         <v>8</v>
       </c>
       <c r="J3" s="7" t="s">
+        <v>296</v>
+      </c>
+      <c r="K3" s="7" t="s">
         <v>297</v>
-      </c>
-      <c r="K3" s="7" t="s">
-        <v>298</v>
       </c>
       <c r="L3" s="8">
         <v>43990</v>
       </c>
       <c r="M3" s="7" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="4" spans="1:13" ht="75" x14ac:dyDescent="0.25">
@@ -2880,22 +4768,22 @@
         <v>28</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C4" s="7" t="s">
         <v>14</v>
       </c>
       <c r="D4" s="7" t="s">
+        <v>299</v>
+      </c>
+      <c r="E4" s="7" t="s">
         <v>300</v>
       </c>
-      <c r="E4" s="7" t="s">
+      <c r="F4" s="7" t="s">
         <v>301</v>
       </c>
-      <c r="F4" s="7" t="s">
-        <v>302</v>
-      </c>
       <c r="G4" s="7" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="H4" s="7">
         <v>1</v>
@@ -2904,16 +4792,16 @@
         <v>14</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="L4" s="8">
         <v>43983</v>
       </c>
       <c r="M4" s="7" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="5" spans="1:13" ht="75" x14ac:dyDescent="0.25">
@@ -2921,22 +4809,22 @@
         <v>30</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C5" s="7" t="s">
         <v>14</v>
       </c>
       <c r="D5" s="7" t="s">
+        <v>303</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>300</v>
+      </c>
+      <c r="F5" s="7" t="s">
         <v>304</v>
       </c>
-      <c r="E5" s="7" t="s">
-        <v>301</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>305</v>
-      </c>
       <c r="G5" s="7" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="H5" s="7">
         <v>1</v>
@@ -2945,16 +4833,16 @@
         <v>14</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="L5" s="8">
         <v>43984</v>
       </c>
       <c r="M5" s="7" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="6" spans="1:13" ht="75" x14ac:dyDescent="0.25">
@@ -2962,22 +4850,22 @@
         <v>32</v>
       </c>
       <c r="B6" s="7" t="s">
+        <v>306</v>
+      </c>
+      <c r="C6" s="7" t="s">
         <v>307</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="D6" s="7" t="s">
         <v>308</v>
       </c>
-      <c r="D6" s="7" t="s">
+      <c r="E6" s="7" t="s">
         <v>309</v>
       </c>
-      <c r="E6" s="7" t="s">
+      <c r="F6" s="7" t="s">
         <v>310</v>
       </c>
-      <c r="F6" s="7" t="s">
-        <v>311</v>
-      </c>
       <c r="G6" s="7" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="H6" s="7">
         <v>1</v>
@@ -2986,16 +4874,16 @@
         <v>14</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="L6" s="8">
         <v>43983</v>
       </c>
       <c r="M6" s="7" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="7" spans="1:13" ht="75" x14ac:dyDescent="0.25">
@@ -3003,22 +4891,22 @@
         <v>34</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C7" s="7" t="s">
         <v>14</v>
       </c>
       <c r="D7" s="7" t="s">
+        <v>312</v>
+      </c>
+      <c r="E7" s="7" t="s">
         <v>313</v>
       </c>
-      <c r="E7" s="7" t="s">
+      <c r="F7" s="7" t="s">
         <v>314</v>
       </c>
-      <c r="F7" s="7" t="s">
-        <v>315</v>
-      </c>
       <c r="G7" s="7" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="H7" s="7">
         <v>1</v>
@@ -3027,16 +4915,16 @@
         <v>14</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="L7" s="8">
         <v>43927</v>
       </c>
       <c r="M7" s="7" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="8" spans="1:13" ht="75" x14ac:dyDescent="0.25">
@@ -3047,19 +4935,19 @@
         <v>74</v>
       </c>
       <c r="C8" s="7" t="s">
+        <v>316</v>
+      </c>
+      <c r="D8" s="7" t="s">
         <v>317</v>
       </c>
-      <c r="D8" s="7" t="s">
+      <c r="E8" s="7" t="s">
         <v>318</v>
       </c>
-      <c r="E8" s="7" t="s">
+      <c r="F8" s="7" t="s">
         <v>319</v>
       </c>
-      <c r="F8" s="7" t="s">
-        <v>320</v>
-      </c>
       <c r="G8" s="7" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="H8" s="7">
         <v>1</v>
@@ -3068,32 +4956,32 @@
         <v>14</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="L8" s="8">
         <v>43983</v>
       </c>
       <c r="M8" s="7" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="10" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
+        <v>322</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>280</v>
+      </c>
+      <c r="C10" s="6" t="s">
         <v>323</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>281</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>324</v>
       </c>
     </row>
     <row r="11" spans="1:13" ht="45" x14ac:dyDescent="0.25">
@@ -3104,7 +4992,7 @@
         <v>28</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="12" spans="1:13" ht="45" x14ac:dyDescent="0.25">
@@ -3115,7 +5003,7 @@
         <v>30</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="13" spans="1:13" ht="45" x14ac:dyDescent="0.25">
@@ -3126,7 +5014,7 @@
         <v>32</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="14" spans="1:13" ht="45" x14ac:dyDescent="0.25">
@@ -3137,7 +5025,7 @@
         <v>34</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="15" spans="1:13" ht="45" x14ac:dyDescent="0.25">
@@ -3148,32 +5036,32 @@
         <v>36</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
+        <v>326</v>
+      </c>
+      <c r="B18" s="6" t="s">
         <v>327</v>
       </c>
-      <c r="B18" s="6" t="s">
+      <c r="C18" s="6" t="s">
+        <v>322</v>
+      </c>
+      <c r="D18" s="6" t="s">
         <v>328</v>
       </c>
-      <c r="C18" s="6" t="s">
-        <v>323</v>
-      </c>
-      <c r="D18" s="6" t="s">
+      <c r="E18" s="6" t="s">
         <v>329</v>
       </c>
-      <c r="E18" s="6" t="s">
+      <c r="F18" s="6" t="s">
         <v>330</v>
-      </c>
-      <c r="F18" s="6" t="s">
-        <v>331</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -3181,13 +5069,13 @@
         <v>21</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C19" s="7">
         <v>28</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="E19" s="7">
         <v>1</v>
@@ -3201,13 +5089,13 @@
         <v>22</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C20" s="7">
         <v>28</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="E20" s="7">
         <v>1</v>
@@ -3221,13 +5109,13 @@
         <v>23</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C21" s="7">
         <v>30</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="E21" s="7">
         <v>1</v>
@@ -3241,13 +5129,13 @@
         <v>24</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C22" s="7">
         <v>30</v>
       </c>
       <c r="D22" s="7" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="E22" s="7">
         <v>1</v>
@@ -3267,7 +5155,7 @@
         <v>32</v>
       </c>
       <c r="D23" s="7" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="E23" s="7">
         <v>1</v>
@@ -3287,7 +5175,7 @@
         <v>32</v>
       </c>
       <c r="D24" s="7" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="E24" s="7">
         <v>1</v>
@@ -3296,18 +5184,18 @@
         <v>9846551320</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="7">
         <v>27</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C25" s="7">
         <v>34</v>
       </c>
       <c r="D25" s="7" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="E25" s="7">
         <v>1</v>
@@ -3316,18 +5204,18 @@
         <v>7897746123</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="7">
         <v>28</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C26" s="7">
         <v>34</v>
       </c>
       <c r="D26" s="7" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="E26" s="7">
         <v>1</v>
@@ -3336,18 +5224,18 @@
         <v>8974132654</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="7">
         <v>29</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C27" s="7">
         <v>36</v>
       </c>
       <c r="D27" s="7" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="E27" s="7">
         <v>1</v>
@@ -3356,18 +5244,18 @@
         <v>9787741320</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="7">
         <v>30</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C28" s="7">
         <v>36</v>
       </c>
       <c r="D28" s="7" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="E28" s="7">
         <v>1</v>
@@ -3382,73 +5270,79 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73103244-3CE0-428D-8FF1-D2254FF786FD}">
-  <dimension ref="A1:L54"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0816BCCC-1CA0-4B04-91B8-9D9E25FA67DF}">
+  <dimension ref="A1:M54"/>
   <sheetViews>
-    <sheetView topLeftCell="B22" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="N5" sqref="N5"/>
+    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="21.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="133.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.42578125" customWidth="1"/>
-    <col min="6" max="6" width="45.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13" customWidth="1"/>
-    <col min="9" max="9" width="13.85546875" customWidth="1"/>
-    <col min="10" max="10" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.28515625" customWidth="1"/>
+    <col min="3" max="3" width="20.7109375" customWidth="1"/>
+    <col min="4" max="4" width="140.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21" customWidth="1"/>
+    <col min="6" max="6" width="47" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="35.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="22.7109375" customWidth="1"/>
+    <col min="9" max="9" width="18.42578125" customWidth="1"/>
+    <col min="10" max="10" width="17.7109375" customWidth="1"/>
+    <col min="11" max="11" width="30.42578125" customWidth="1"/>
+    <col min="12" max="12" width="20" customWidth="1"/>
+    <col min="13" max="13" width="14.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>34</v>
-      </c>
-      <c r="B2" t="s">
-        <v>43</v>
-      </c>
-      <c r="C2" t="s">
-        <v>44</v>
-      </c>
-      <c r="D2" t="s">
-        <v>254</v>
-      </c>
-      <c r="E2" t="s">
-        <v>45</v>
-      </c>
-      <c r="F2" t="s">
-        <v>253</v>
-      </c>
-      <c r="G2" t="s">
-        <v>46</v>
-      </c>
-      <c r="H2" t="s">
-        <v>47</v>
-      </c>
-      <c r="I2" t="s">
-        <v>279</v>
-      </c>
-      <c r="J2" t="s">
-        <v>48</v>
-      </c>
-      <c r="K2" t="s">
-        <v>280</v>
-      </c>
-      <c r="L2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>160001</v>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2" s="6" t="s">
+        <v>345</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>346</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>347</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>348</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>349</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>350</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>351</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>322</v>
+      </c>
+      <c r="I2" s="6" t="s">
+        <v>352</v>
+      </c>
+      <c r="J2" s="6" t="s">
+        <v>353</v>
+      </c>
+      <c r="K2" s="6" t="s">
+        <v>354</v>
+      </c>
+      <c r="L2" s="6" t="s">
+        <v>355</v>
+      </c>
+      <c r="M2" s="6" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>359</v>
       </c>
       <c r="B3" t="s">
         <v>79</v>
@@ -3466,27 +5360,30 @@
         <v>91</v>
       </c>
       <c r="G3" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="H3">
-        <v>1</v>
+        <v>34</v>
       </c>
       <c r="I3">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J3">
         <v>5</v>
       </c>
       <c r="K3">
-        <v>190003</v>
+        <v>10</v>
       </c>
       <c r="L3">
-        <v>310005</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>160002</v>
+        <v>27</v>
+      </c>
+      <c r="M3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>359</v>
       </c>
       <c r="B4" t="s">
         <v>80</v>
@@ -3504,27 +5401,30 @@
         <v>91</v>
       </c>
       <c r="G4" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="H4">
-        <v>1</v>
+        <v>34</v>
       </c>
       <c r="I4">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J4">
         <v>5</v>
       </c>
       <c r="K4">
-        <v>190003</v>
+        <v>10</v>
       </c>
       <c r="L4">
-        <v>310005</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>160003</v>
+        <v>27</v>
+      </c>
+      <c r="M4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>359</v>
       </c>
       <c r="B5" t="s">
         <v>81</v>
@@ -3542,27 +5442,30 @@
         <v>91</v>
       </c>
       <c r="G5" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="H5">
-        <v>1</v>
+        <v>34</v>
       </c>
       <c r="I5">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J5">
         <v>5</v>
       </c>
       <c r="K5">
-        <v>190003</v>
+        <v>10</v>
       </c>
       <c r="L5">
-        <v>310005</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>160004</v>
+        <v>27</v>
+      </c>
+      <c r="M5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>359</v>
       </c>
       <c r="B6" t="s">
         <v>82</v>
@@ -3580,27 +5483,30 @@
         <v>91</v>
       </c>
       <c r="G6" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="H6">
-        <v>1</v>
+        <v>34</v>
       </c>
       <c r="I6">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J6">
         <v>5</v>
       </c>
       <c r="K6">
-        <v>190003</v>
+        <v>10</v>
       </c>
       <c r="L6">
-        <v>310005</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>160005</v>
+        <v>27</v>
+      </c>
+      <c r="M6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>359</v>
       </c>
       <c r="B7" t="s">
         <v>83</v>
@@ -3618,27 +5524,30 @@
         <v>91</v>
       </c>
       <c r="G7" t="s">
-        <v>265</v>
+        <v>358</v>
       </c>
       <c r="H7">
-        <v>1</v>
+        <v>34</v>
       </c>
       <c r="I7">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J7">
         <v>5</v>
       </c>
       <c r="K7">
-        <v>190003</v>
+        <v>10</v>
       </c>
       <c r="L7">
-        <v>310005</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>160006</v>
+        <v>27</v>
+      </c>
+      <c r="M7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>359</v>
       </c>
       <c r="B8" t="s">
         <v>84</v>
@@ -3656,27 +5565,30 @@
         <v>91</v>
       </c>
       <c r="G8" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="H8">
-        <v>1</v>
+        <v>34</v>
       </c>
       <c r="I8">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J8">
         <v>5</v>
       </c>
       <c r="K8">
-        <v>190003</v>
+        <v>10</v>
       </c>
       <c r="L8">
-        <v>310005</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>160007</v>
+        <v>27</v>
+      </c>
+      <c r="M8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>359</v>
       </c>
       <c r="B9" t="s">
         <v>85</v>
@@ -3694,27 +5606,30 @@
         <v>91</v>
       </c>
       <c r="G9" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="H9">
-        <v>1</v>
+        <v>34</v>
       </c>
       <c r="I9">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J9">
         <v>5</v>
       </c>
       <c r="K9">
-        <v>190003</v>
+        <v>10</v>
       </c>
       <c r="L9">
-        <v>310005</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>160008</v>
+        <v>27</v>
+      </c>
+      <c r="M9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>359</v>
       </c>
       <c r="B10" t="s">
         <v>86</v>
@@ -3732,27 +5647,27 @@
         <v>91</v>
       </c>
       <c r="G10" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="H10">
-        <v>1</v>
+        <v>34</v>
       </c>
       <c r="I10">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J10">
         <v>5</v>
       </c>
-      <c r="K10">
-        <v>190003</v>
-      </c>
       <c r="L10">
-        <v>310005</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>160009</v>
+        <v>27</v>
+      </c>
+      <c r="M10">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>359</v>
       </c>
       <c r="B11" t="s">
         <v>87</v>
@@ -3770,27 +5685,27 @@
         <v>91</v>
       </c>
       <c r="G11" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="H11">
-        <v>1</v>
+        <v>34</v>
       </c>
       <c r="I11">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J11">
         <v>5</v>
       </c>
-      <c r="K11">
-        <v>190004</v>
-      </c>
       <c r="L11">
-        <v>310005</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>160010</v>
+        <v>27</v>
+      </c>
+      <c r="M11">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>359</v>
       </c>
       <c r="B12" t="s">
         <v>88</v>
@@ -3808,27 +5723,27 @@
         <v>91</v>
       </c>
       <c r="G12" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="H12">
-        <v>1</v>
+        <v>34</v>
       </c>
       <c r="I12">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J12">
         <v>5</v>
       </c>
-      <c r="K12">
-        <v>190004</v>
-      </c>
       <c r="L12">
-        <v>310005</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>160011</v>
+        <v>27</v>
+      </c>
+      <c r="M12">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>359</v>
       </c>
       <c r="B13" t="s">
         <v>89</v>
@@ -3846,27 +5761,27 @@
         <v>91</v>
       </c>
       <c r="G13" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="H13">
-        <v>1</v>
+        <v>34</v>
       </c>
       <c r="I13">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J13">
         <v>5</v>
       </c>
-      <c r="K13">
-        <v>190004</v>
-      </c>
       <c r="L13">
-        <v>310005</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>160012</v>
+        <v>27</v>
+      </c>
+      <c r="M13">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>359</v>
       </c>
       <c r="B14" t="s">
         <v>90</v>
@@ -3884,27 +5799,27 @@
         <v>91</v>
       </c>
       <c r="G14" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="H14">
-        <v>1</v>
+        <v>34</v>
       </c>
       <c r="I14">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J14">
         <v>5</v>
       </c>
-      <c r="K14">
-        <v>190004</v>
-      </c>
       <c r="L14">
-        <v>310005</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>160013</v>
+        <v>27</v>
+      </c>
+      <c r="M14">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>359</v>
       </c>
       <c r="B15" t="s">
         <v>92</v>
@@ -3922,24 +5837,30 @@
         <v>91</v>
       </c>
       <c r="G15" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="H15">
+        <v>34</v>
+      </c>
+      <c r="I15">
         <v>1</v>
       </c>
       <c r="J15">
         <v>5</v>
       </c>
       <c r="K15">
-        <v>190004</v>
+        <v>10</v>
       </c>
       <c r="L15">
-        <v>310005</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <v>160014</v>
+        <v>27</v>
+      </c>
+      <c r="M15">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>359</v>
       </c>
       <c r="B16" t="s">
         <v>93</v>
@@ -3957,24 +5878,30 @@
         <v>91</v>
       </c>
       <c r="G16" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="H16">
+        <v>34</v>
+      </c>
+      <c r="I16">
         <v>1</v>
       </c>
       <c r="J16">
         <v>5</v>
       </c>
       <c r="K16">
-        <v>190004</v>
+        <v>10</v>
       </c>
       <c r="L16">
-        <v>310005</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A17">
-        <v>160015</v>
+        <v>27</v>
+      </c>
+      <c r="M16">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>359</v>
       </c>
       <c r="B17" t="s">
         <v>94</v>
@@ -3992,24 +5919,30 @@
         <v>91</v>
       </c>
       <c r="G17" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="H17">
+        <v>34</v>
+      </c>
+      <c r="I17">
         <v>1</v>
       </c>
       <c r="J17">
         <v>5</v>
       </c>
       <c r="K17">
-        <v>190004</v>
+        <v>10</v>
       </c>
       <c r="L17">
-        <v>310005</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A18">
-        <v>160016</v>
+        <v>27</v>
+      </c>
+      <c r="M17">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>359</v>
       </c>
       <c r="B18" t="s">
         <v>95</v>
@@ -4027,1162 +5960,1456 @@
         <v>91</v>
       </c>
       <c r="G18" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="H18">
+        <v>34</v>
+      </c>
+      <c r="I18">
         <v>1</v>
       </c>
       <c r="J18">
         <v>5</v>
       </c>
       <c r="K18">
-        <v>190004</v>
+        <v>10</v>
       </c>
       <c r="L18">
-        <v>310005</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A19">
-        <v>160017</v>
+        <v>27</v>
+      </c>
+      <c r="M18">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>359</v>
       </c>
       <c r="B19" t="s">
-        <v>185</v>
+        <v>360</v>
       </c>
       <c r="C19">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>203</v>
+        <v>361</v>
       </c>
       <c r="E19">
         <v>36</v>
       </c>
       <c r="F19" t="s">
-        <v>200</v>
+        <v>362</v>
       </c>
       <c r="G19" t="s">
-        <v>222</v>
+        <v>363</v>
       </c>
       <c r="H19">
+        <v>34</v>
+      </c>
+      <c r="I19">
         <v>1</v>
       </c>
       <c r="J19">
         <v>5</v>
       </c>
-      <c r="K19">
-        <v>190010</v>
-      </c>
       <c r="L19">
-        <v>310006</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A20">
-        <v>160018</v>
+        <v>28</v>
+      </c>
+      <c r="M19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>359</v>
       </c>
       <c r="B20" t="s">
-        <v>186</v>
+        <v>368</v>
       </c>
       <c r="C20">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>203</v>
+        <v>361</v>
       </c>
       <c r="E20">
         <v>37</v>
       </c>
       <c r="F20" t="s">
-        <v>200</v>
+        <v>362</v>
       </c>
       <c r="G20" t="s">
-        <v>223</v>
+        <v>364</v>
       </c>
       <c r="H20">
+        <v>34</v>
+      </c>
+      <c r="I20">
         <v>1</v>
       </c>
       <c r="J20">
         <v>5</v>
       </c>
       <c r="K20">
-        <v>190010</v>
+        <v>5</v>
       </c>
       <c r="L20">
-        <v>310006</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A21">
-        <v>160019</v>
+        <v>28</v>
+      </c>
+      <c r="M20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>359</v>
       </c>
       <c r="B21" t="s">
-        <v>187</v>
+        <v>369</v>
       </c>
       <c r="C21">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>203</v>
+        <v>361</v>
       </c>
       <c r="E21">
         <v>38</v>
       </c>
       <c r="F21" t="s">
-        <v>200</v>
+        <v>362</v>
       </c>
       <c r="G21" t="s">
-        <v>224</v>
+        <v>365</v>
       </c>
       <c r="H21">
+        <v>34</v>
+      </c>
+      <c r="I21">
         <v>1</v>
       </c>
       <c r="J21">
         <v>5</v>
       </c>
       <c r="K21">
-        <v>190010</v>
+        <v>6</v>
       </c>
       <c r="L21">
-        <v>310006</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A22">
-        <v>160020</v>
+        <v>28</v>
+      </c>
+      <c r="M21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>359</v>
       </c>
       <c r="B22" t="s">
-        <v>190</v>
+        <v>370</v>
       </c>
       <c r="C22">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>203</v>
+        <v>361</v>
       </c>
       <c r="E22">
         <v>39</v>
       </c>
       <c r="F22" t="s">
-        <v>200</v>
+        <v>362</v>
       </c>
       <c r="G22" t="s">
-        <v>225</v>
+        <v>366</v>
       </c>
       <c r="H22">
+        <v>34</v>
+      </c>
+      <c r="I22">
         <v>1</v>
       </c>
       <c r="J22">
         <v>5</v>
       </c>
       <c r="K22">
-        <v>190010</v>
+        <v>7</v>
       </c>
       <c r="L22">
-        <v>310006</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A23">
-        <v>160021</v>
+        <v>28</v>
+      </c>
+      <c r="M22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>359</v>
       </c>
       <c r="B23" t="s">
-        <v>189</v>
+        <v>371</v>
       </c>
       <c r="C23">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>203</v>
+        <v>361</v>
       </c>
       <c r="E23">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F23" t="s">
-        <v>200</v>
+        <v>362</v>
       </c>
       <c r="G23" t="s">
-        <v>226</v>
+        <v>367</v>
       </c>
       <c r="H23">
+        <v>34</v>
+      </c>
+      <c r="I23">
         <v>1</v>
       </c>
       <c r="J23">
         <v>5</v>
       </c>
       <c r="K23">
-        <v>190010</v>
+        <v>8</v>
       </c>
       <c r="L23">
-        <v>310006</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A24">
-        <v>160022</v>
+        <v>28</v>
+      </c>
+      <c r="M23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>359</v>
       </c>
       <c r="B24" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="C24">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="D24" s="4" t="s">
         <v>203</v>
       </c>
       <c r="E24">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="F24" t="s">
         <v>200</v>
       </c>
       <c r="G24" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="H24">
+        <v>30</v>
+      </c>
+      <c r="I24">
         <v>1</v>
       </c>
       <c r="J24">
         <v>5</v>
       </c>
       <c r="K24">
-        <v>190010</v>
+        <v>10</v>
       </c>
       <c r="L24">
-        <v>310006</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A25">
-        <v>160023</v>
+        <v>23</v>
+      </c>
+      <c r="M24">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>359</v>
       </c>
       <c r="B25" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="C25">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="D25" s="4" t="s">
         <v>203</v>
       </c>
       <c r="E25">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="F25" t="s">
         <v>200</v>
       </c>
       <c r="G25" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="H25">
+        <v>30</v>
+      </c>
+      <c r="I25">
         <v>1</v>
       </c>
       <c r="J25">
         <v>5</v>
       </c>
       <c r="K25">
-        <v>190010</v>
+        <v>10</v>
       </c>
       <c r="L25">
-        <v>310006</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A26">
-        <v>160024</v>
+        <v>23</v>
+      </c>
+      <c r="M25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>359</v>
       </c>
       <c r="B26" t="s">
-        <v>197</v>
+        <v>187</v>
       </c>
       <c r="C26">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="D26" s="4" t="s">
         <v>203</v>
       </c>
       <c r="E26">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="F26" t="s">
         <v>200</v>
       </c>
       <c r="G26" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="H26">
+        <v>30</v>
+      </c>
+      <c r="I26">
         <v>1</v>
       </c>
       <c r="J26">
         <v>5</v>
       </c>
       <c r="K26">
-        <v>190010</v>
+        <v>10</v>
       </c>
       <c r="L26">
-        <v>310006</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A27">
-        <v>160025</v>
+        <v>23</v>
+      </c>
+      <c r="M26">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>359</v>
       </c>
       <c r="B27" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="C27">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="D27" s="4" t="s">
         <v>203</v>
       </c>
       <c r="E27">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="F27" t="s">
         <v>200</v>
       </c>
       <c r="G27" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="H27">
+        <v>30</v>
+      </c>
+      <c r="I27">
         <v>1</v>
       </c>
       <c r="J27">
         <v>5</v>
       </c>
-      <c r="K27">
-        <v>190010</v>
-      </c>
       <c r="L27">
-        <v>310006</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A28">
-        <v>160026</v>
+        <v>23</v>
+      </c>
+      <c r="M27">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>359</v>
       </c>
       <c r="B28" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="C28">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D28" s="4" t="s">
         <v>203</v>
       </c>
       <c r="E28">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="F28" t="s">
         <v>200</v>
       </c>
       <c r="G28" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="H28">
+        <v>30</v>
+      </c>
+      <c r="I28">
         <v>1</v>
       </c>
       <c r="J28">
         <v>5</v>
       </c>
-      <c r="K28">
-        <v>190010</v>
-      </c>
       <c r="L28">
-        <v>310006</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A29">
-        <v>160027</v>
+        <v>23</v>
+      </c>
+      <c r="M28">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>359</v>
       </c>
       <c r="B29" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="C29">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D29" s="4" t="s">
         <v>203</v>
       </c>
       <c r="E29">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="F29" t="s">
         <v>200</v>
       </c>
       <c r="G29" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="H29">
+        <v>30</v>
+      </c>
+      <c r="I29">
         <v>1</v>
       </c>
       <c r="J29">
         <v>5</v>
       </c>
-      <c r="K29">
-        <v>190010</v>
-      </c>
       <c r="L29">
-        <v>310006</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A30">
-        <v>160028</v>
+        <v>23</v>
+      </c>
+      <c r="M29">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>359</v>
       </c>
       <c r="B30" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C30">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D30" s="4" t="s">
         <v>203</v>
       </c>
       <c r="E30">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F30" t="s">
         <v>200</v>
       </c>
       <c r="G30" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="H30">
+        <v>30</v>
+      </c>
+      <c r="I30">
         <v>1</v>
       </c>
       <c r="J30">
         <v>5</v>
       </c>
-      <c r="K30">
-        <v>190010</v>
-      </c>
       <c r="L30">
-        <v>310006</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A31">
-        <v>160029</v>
+        <v>23</v>
+      </c>
+      <c r="M30">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>359</v>
       </c>
       <c r="B31" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C31">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D31" s="4" t="s">
         <v>203</v>
       </c>
       <c r="E31">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F31" t="s">
         <v>200</v>
       </c>
       <c r="G31" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="H31">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="I31">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J31">
         <v>5</v>
       </c>
-      <c r="K31">
-        <v>190010</v>
-      </c>
       <c r="L31">
-        <v>310006</v>
-      </c>
-    </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A32">
-        <v>160030</v>
+        <v>23</v>
+      </c>
+      <c r="M31">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>359</v>
       </c>
       <c r="B32" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="C32">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D32" s="4" t="s">
         <v>203</v>
       </c>
       <c r="E32">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="F32" t="s">
         <v>200</v>
       </c>
       <c r="G32" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="H32">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="I32">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J32">
         <v>5</v>
       </c>
-      <c r="K32">
-        <v>190010</v>
-      </c>
       <c r="L32">
-        <v>310006</v>
-      </c>
-    </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A33">
-        <v>160031</v>
+        <v>23</v>
+      </c>
+      <c r="M32">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>359</v>
       </c>
       <c r="B33" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="C33">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D33" s="4" t="s">
         <v>203</v>
       </c>
       <c r="E33">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="F33" t="s">
         <v>200</v>
       </c>
       <c r="G33" t="s">
+        <v>230</v>
+      </c>
+      <c r="H33">
+        <v>30</v>
+      </c>
+      <c r="I33">
+        <v>1</v>
+      </c>
+      <c r="J33">
+        <v>5</v>
+      </c>
+      <c r="L33">
+        <v>23</v>
+      </c>
+      <c r="M33">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>359</v>
+      </c>
+      <c r="B34" t="s">
+        <v>195</v>
+      </c>
+      <c r="C34">
+        <v>15</v>
+      </c>
+      <c r="D34" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="E34">
+        <v>46</v>
+      </c>
+      <c r="F34" t="s">
+        <v>200</v>
+      </c>
+      <c r="G34" t="s">
+        <v>231</v>
+      </c>
+      <c r="H34">
+        <v>30</v>
+      </c>
+      <c r="I34">
+        <v>1</v>
+      </c>
+      <c r="J34">
+        <v>5</v>
+      </c>
+      <c r="L34">
+        <v>23</v>
+      </c>
+      <c r="M34">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>359</v>
+      </c>
+      <c r="B35" t="s">
+        <v>193</v>
+      </c>
+      <c r="C35">
+        <v>13</v>
+      </c>
+      <c r="D35" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="E35">
+        <v>44</v>
+      </c>
+      <c r="F35" t="s">
+        <v>200</v>
+      </c>
+      <c r="G35" t="s">
+        <v>232</v>
+      </c>
+      <c r="H35">
+        <v>30</v>
+      </c>
+      <c r="I35">
+        <v>1</v>
+      </c>
+      <c r="J35">
+        <v>5</v>
+      </c>
+      <c r="K35">
+        <v>10</v>
+      </c>
+      <c r="L35">
+        <v>23</v>
+      </c>
+      <c r="M35">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>359</v>
+      </c>
+      <c r="B36" t="s">
+        <v>198</v>
+      </c>
+      <c r="C36">
+        <v>18</v>
+      </c>
+      <c r="D36" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="E36">
+        <v>49</v>
+      </c>
+      <c r="F36" t="s">
+        <v>200</v>
+      </c>
+      <c r="G36" t="s">
+        <v>233</v>
+      </c>
+      <c r="H36">
+        <v>30</v>
+      </c>
+      <c r="I36">
+        <v>1</v>
+      </c>
+      <c r="J36">
+        <v>5</v>
+      </c>
+      <c r="K36">
+        <v>10</v>
+      </c>
+      <c r="L36">
+        <v>23</v>
+      </c>
+      <c r="M36">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>359</v>
+      </c>
+      <c r="B37" t="s">
+        <v>199</v>
+      </c>
+      <c r="C37">
+        <v>19</v>
+      </c>
+      <c r="D37" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="E37">
+        <v>50</v>
+      </c>
+      <c r="F37" t="s">
+        <v>200</v>
+      </c>
+      <c r="G37" t="s">
+        <v>234</v>
+      </c>
+      <c r="H37">
+        <v>30</v>
+      </c>
+      <c r="I37">
+        <v>1</v>
+      </c>
+      <c r="J37">
+        <v>5</v>
+      </c>
+      <c r="K37">
+        <v>10</v>
+      </c>
+      <c r="L37">
+        <v>23</v>
+      </c>
+      <c r="M37">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>359</v>
+      </c>
+      <c r="B38" t="s">
+        <v>188</v>
+      </c>
+      <c r="C38">
+        <v>10</v>
+      </c>
+      <c r="D38" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="E38">
+        <v>41</v>
+      </c>
+      <c r="F38" t="s">
+        <v>200</v>
+      </c>
+      <c r="G38" t="s">
+        <v>235</v>
+      </c>
+      <c r="H38">
+        <v>30</v>
+      </c>
+      <c r="I38">
+        <v>1</v>
+      </c>
+      <c r="J38">
+        <v>5</v>
+      </c>
+      <c r="K38">
+        <v>10</v>
+      </c>
+      <c r="L38">
+        <v>23</v>
+      </c>
+      <c r="M38">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>359</v>
+      </c>
+      <c r="B39" t="s">
+        <v>204</v>
+      </c>
+      <c r="C39">
+        <v>10</v>
+      </c>
+      <c r="D39" t="s">
+        <v>219</v>
+      </c>
+      <c r="E39">
+        <v>10</v>
+      </c>
+      <c r="F39" t="s">
+        <v>220</v>
+      </c>
+      <c r="G39" t="s">
         <v>236</v>
       </c>
-      <c r="H33">
-        <v>1</v>
-      </c>
-      <c r="I33">
-        <v>5</v>
-      </c>
-      <c r="J33">
-        <v>5</v>
-      </c>
-      <c r="K33">
-        <v>190010</v>
-      </c>
-      <c r="L33">
-        <v>310006</v>
-      </c>
-    </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A34">
-        <v>160032</v>
-      </c>
-      <c r="B34" t="s">
-        <v>204</v>
-      </c>
-      <c r="C34">
-        <v>10</v>
-      </c>
-      <c r="D34" t="s">
-        <v>220</v>
-      </c>
-      <c r="E34">
-        <v>10</v>
-      </c>
-      <c r="F34" t="s">
-        <v>221</v>
-      </c>
-      <c r="G34" t="s">
-        <v>237</v>
-      </c>
-      <c r="H34">
+      <c r="H39">
+        <v>30</v>
+      </c>
+      <c r="I39">
         <v>2</v>
-      </c>
-      <c r="I34">
-        <v>5</v>
-      </c>
-      <c r="J34">
-        <v>10</v>
-      </c>
-      <c r="K34">
-        <v>190009</v>
-      </c>
-      <c r="L34">
-        <v>310006</v>
-      </c>
-    </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A35">
-        <v>160033</v>
-      </c>
-      <c r="B35" t="s">
-        <v>205</v>
-      </c>
-      <c r="C35">
-        <v>11</v>
-      </c>
-      <c r="D35" t="s">
-        <v>220</v>
-      </c>
-      <c r="E35">
-        <v>11</v>
-      </c>
-      <c r="F35" t="s">
-        <v>221</v>
-      </c>
-      <c r="G35" t="s">
-        <v>238</v>
-      </c>
-      <c r="H35">
-        <v>2</v>
-      </c>
-      <c r="I35">
-        <v>5</v>
-      </c>
-      <c r="J35">
-        <v>10</v>
-      </c>
-      <c r="K35">
-        <v>190009</v>
-      </c>
-      <c r="L35">
-        <v>310006</v>
-      </c>
-    </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A36">
-        <v>160034</v>
-      </c>
-      <c r="B36" t="s">
-        <v>206</v>
-      </c>
-      <c r="C36">
-        <v>12</v>
-      </c>
-      <c r="D36" t="s">
-        <v>220</v>
-      </c>
-      <c r="E36">
-        <v>12</v>
-      </c>
-      <c r="F36" t="s">
-        <v>221</v>
-      </c>
-      <c r="G36" t="s">
-        <v>239</v>
-      </c>
-      <c r="H36">
-        <v>2</v>
-      </c>
-      <c r="I36">
-        <v>5</v>
-      </c>
-      <c r="J36">
-        <v>10</v>
-      </c>
-      <c r="K36">
-        <v>190009</v>
-      </c>
-      <c r="L36">
-        <v>310006</v>
-      </c>
-    </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A37">
-        <v>160035</v>
-      </c>
-      <c r="B37" t="s">
-        <v>207</v>
-      </c>
-      <c r="C37">
-        <v>13</v>
-      </c>
-      <c r="D37" t="s">
-        <v>220</v>
-      </c>
-      <c r="E37">
-        <v>13</v>
-      </c>
-      <c r="F37" t="s">
-        <v>221</v>
-      </c>
-      <c r="G37" t="s">
-        <v>240</v>
-      </c>
-      <c r="H37">
-        <v>2</v>
-      </c>
-      <c r="I37">
-        <v>5</v>
-      </c>
-      <c r="J37">
-        <v>10</v>
-      </c>
-      <c r="K37">
-        <v>190009</v>
-      </c>
-      <c r="L37">
-        <v>310006</v>
-      </c>
-    </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A38">
-        <v>160036</v>
-      </c>
-      <c r="B38" t="s">
-        <v>208</v>
-      </c>
-      <c r="C38">
-        <v>14</v>
-      </c>
-      <c r="D38" t="s">
-        <v>220</v>
-      </c>
-      <c r="E38">
-        <v>14</v>
-      </c>
-      <c r="F38" t="s">
-        <v>221</v>
-      </c>
-      <c r="G38" t="s">
-        <v>241</v>
-      </c>
-      <c r="H38">
-        <v>2</v>
-      </c>
-      <c r="I38">
-        <v>5</v>
-      </c>
-      <c r="J38">
-        <v>10</v>
-      </c>
-      <c r="K38">
-        <v>190009</v>
-      </c>
-      <c r="L38">
-        <v>310006</v>
-      </c>
-    </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A39">
-        <v>160037</v>
-      </c>
-      <c r="B39" t="s">
-        <v>209</v>
-      </c>
-      <c r="C39">
-        <v>15</v>
-      </c>
-      <c r="D39" t="s">
-        <v>220</v>
-      </c>
-      <c r="E39">
-        <v>15</v>
-      </c>
-      <c r="F39" t="s">
-        <v>221</v>
-      </c>
-      <c r="G39" t="s">
-        <v>242</v>
-      </c>
-      <c r="H39">
-        <v>2</v>
-      </c>
-      <c r="I39">
-        <v>5</v>
       </c>
       <c r="J39">
         <v>10</v>
       </c>
       <c r="K39">
-        <v>190009</v>
+        <v>10</v>
       </c>
       <c r="L39">
-        <v>310006</v>
-      </c>
-    </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A40">
-        <v>160038</v>
+        <v>24</v>
+      </c>
+      <c r="M39">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>359</v>
       </c>
       <c r="B40" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="C40">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="D40" t="s">
+        <v>219</v>
+      </c>
+      <c r="E40">
+        <v>11</v>
+      </c>
+      <c r="F40" t="s">
         <v>220</v>
       </c>
-      <c r="E40">
-        <v>16</v>
-      </c>
-      <c r="F40" t="s">
-        <v>221</v>
-      </c>
       <c r="G40" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="H40">
+        <v>30</v>
+      </c>
+      <c r="I40">
         <v>2</v>
-      </c>
-      <c r="I40">
-        <v>5</v>
       </c>
       <c r="J40">
         <v>10</v>
       </c>
       <c r="K40">
-        <v>190009</v>
+        <v>10</v>
       </c>
       <c r="L40">
-        <v>310006</v>
-      </c>
-    </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A41">
-        <v>160039</v>
+        <v>24</v>
+      </c>
+      <c r="M40">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>359</v>
       </c>
       <c r="B41" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="C41">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="D41" t="s">
+        <v>219</v>
+      </c>
+      <c r="E41">
+        <v>12</v>
+      </c>
+      <c r="F41" t="s">
         <v>220</v>
       </c>
-      <c r="E41">
-        <v>17</v>
-      </c>
-      <c r="F41" t="s">
-        <v>221</v>
-      </c>
       <c r="G41" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="H41">
+        <v>30</v>
+      </c>
+      <c r="I41">
         <v>2</v>
-      </c>
-      <c r="I41">
-        <v>5</v>
       </c>
       <c r="J41">
         <v>10</v>
       </c>
       <c r="K41">
-        <v>190009</v>
+        <v>10</v>
       </c>
       <c r="L41">
-        <v>310006</v>
-      </c>
-    </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A42">
-        <v>160040</v>
+        <v>24</v>
+      </c>
+      <c r="M41">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>359</v>
       </c>
       <c r="B42" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="C42">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="D42" t="s">
+        <v>219</v>
+      </c>
+      <c r="E42">
+        <v>13</v>
+      </c>
+      <c r="F42" t="s">
         <v>220</v>
       </c>
-      <c r="E42">
-        <v>18</v>
-      </c>
-      <c r="F42" t="s">
-        <v>221</v>
-      </c>
       <c r="G42" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="H42">
+        <v>30</v>
+      </c>
+      <c r="I42">
         <v>2</v>
       </c>
       <c r="J42">
         <v>10</v>
       </c>
-      <c r="K42">
-        <v>190009</v>
-      </c>
       <c r="L42">
-        <v>310006</v>
-      </c>
-    </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A43">
-        <v>160041</v>
+        <v>24</v>
+      </c>
+      <c r="M42">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>359</v>
       </c>
       <c r="B43" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="C43">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="D43" t="s">
+        <v>219</v>
+      </c>
+      <c r="E43">
+        <v>14</v>
+      </c>
+      <c r="F43" t="s">
         <v>220</v>
       </c>
-      <c r="E43">
-        <v>19</v>
-      </c>
-      <c r="F43" t="s">
-        <v>221</v>
-      </c>
       <c r="G43" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="H43">
+        <v>30</v>
+      </c>
+      <c r="I43">
         <v>2</v>
       </c>
       <c r="J43">
         <v>10</v>
       </c>
-      <c r="K43">
-        <v>190009</v>
-      </c>
       <c r="L43">
-        <v>310006</v>
-      </c>
-    </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A44">
-        <v>160042</v>
+        <v>24</v>
+      </c>
+      <c r="M43">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>359</v>
       </c>
       <c r="B44" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="C44">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D44" t="s">
+        <v>219</v>
+      </c>
+      <c r="E44">
+        <v>15</v>
+      </c>
+      <c r="F44" t="s">
         <v>220</v>
       </c>
-      <c r="E44">
-        <v>20</v>
-      </c>
-      <c r="F44" t="s">
-        <v>221</v>
-      </c>
       <c r="G44" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="H44">
+        <v>30</v>
+      </c>
+      <c r="I44">
         <v>2</v>
       </c>
       <c r="J44">
         <v>10</v>
       </c>
-      <c r="K44">
-        <v>190009</v>
-      </c>
       <c r="L44">
-        <v>310006</v>
-      </c>
-    </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A45">
-        <v>160043</v>
+        <v>24</v>
+      </c>
+      <c r="M44">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>359</v>
       </c>
       <c r="B45" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="C45">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="D45" t="s">
+        <v>219</v>
+      </c>
+      <c r="E45">
+        <v>16</v>
+      </c>
+      <c r="F45" t="s">
         <v>220</v>
       </c>
-      <c r="E45">
-        <v>21</v>
-      </c>
-      <c r="F45" t="s">
-        <v>221</v>
-      </c>
       <c r="G45" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="H45">
+        <v>30</v>
+      </c>
+      <c r="I45">
         <v>2</v>
       </c>
       <c r="J45">
         <v>10</v>
       </c>
-      <c r="K45">
-        <v>190009</v>
-      </c>
       <c r="L45">
-        <v>310006</v>
-      </c>
-    </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A46">
-        <v>160044</v>
+        <v>24</v>
+      </c>
+      <c r="M45">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>359</v>
       </c>
       <c r="B46" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="C46">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="D46" t="s">
+        <v>219</v>
+      </c>
+      <c r="E46">
+        <v>17</v>
+      </c>
+      <c r="F46" t="s">
         <v>220</v>
       </c>
-      <c r="E46">
-        <v>22</v>
-      </c>
-      <c r="F46" t="s">
-        <v>221</v>
-      </c>
       <c r="G46" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="H46">
+        <v>30</v>
+      </c>
+      <c r="I46">
         <v>2</v>
       </c>
       <c r="J46">
         <v>10</v>
       </c>
-      <c r="K46">
-        <v>190009</v>
-      </c>
       <c r="L46">
-        <v>310006</v>
-      </c>
-    </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A47">
-        <v>160045</v>
+        <v>24</v>
+      </c>
+      <c r="M46">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>359</v>
       </c>
       <c r="B47" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="C47">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="D47" t="s">
+        <v>219</v>
+      </c>
+      <c r="E47">
+        <v>18</v>
+      </c>
+      <c r="F47" t="s">
         <v>220</v>
       </c>
-      <c r="E47">
-        <v>23</v>
-      </c>
-      <c r="F47" t="s">
-        <v>221</v>
-      </c>
       <c r="G47" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="H47">
+        <v>30</v>
+      </c>
+      <c r="I47">
         <v>2</v>
       </c>
       <c r="J47">
         <v>10</v>
       </c>
       <c r="K47">
-        <v>190009</v>
+        <v>10</v>
       </c>
       <c r="L47">
-        <v>310006</v>
-      </c>
-    </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A48">
-        <v>160046</v>
+        <v>24</v>
+      </c>
+      <c r="M47">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>359</v>
       </c>
       <c r="B48" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="C48">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="D48" t="s">
+        <v>219</v>
+      </c>
+      <c r="E48">
+        <v>19</v>
+      </c>
+      <c r="F48" t="s">
         <v>220</v>
       </c>
-      <c r="E48">
-        <v>24</v>
-      </c>
-      <c r="F48" t="s">
-        <v>221</v>
-      </c>
       <c r="G48" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="H48">
+        <v>30</v>
+      </c>
+      <c r="I48">
         <v>2</v>
       </c>
       <c r="J48">
         <v>10</v>
       </c>
       <c r="K48">
-        <v>190009</v>
+        <v>10</v>
       </c>
       <c r="L48">
-        <v>310006</v>
-      </c>
-    </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A49">
-        <v>160047</v>
+        <v>24</v>
+      </c>
+      <c r="M48">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>359</v>
       </c>
       <c r="B49" t="s">
+        <v>214</v>
+      </c>
+      <c r="C49">
+        <v>20</v>
+      </c>
+      <c r="D49" t="s">
         <v>219</v>
       </c>
-      <c r="C49">
-        <v>25</v>
-      </c>
-      <c r="D49" t="s">
+      <c r="E49">
+        <v>20</v>
+      </c>
+      <c r="F49" t="s">
         <v>220</v>
       </c>
-      <c r="E49">
-        <v>25</v>
-      </c>
-      <c r="F49" t="s">
-        <v>221</v>
-      </c>
       <c r="G49" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="H49">
+        <v>30</v>
+      </c>
+      <c r="I49">
         <v>2</v>
       </c>
       <c r="J49">
         <v>10</v>
       </c>
       <c r="K49">
-        <v>190009</v>
+        <v>10</v>
       </c>
       <c r="L49">
-        <v>310006</v>
-      </c>
-    </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A50">
-        <v>160048</v>
-      </c>
-    </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A51">
-        <v>160049</v>
-      </c>
-    </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A52">
-        <v>160050</v>
-      </c>
-    </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A53">
-        <v>160051</v>
-      </c>
-    </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A54">
-        <v>160052</v>
+        <v>24</v>
+      </c>
+      <c r="M49">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>359</v>
+      </c>
+      <c r="B50" t="s">
+        <v>215</v>
+      </c>
+      <c r="C50">
+        <v>21</v>
+      </c>
+      <c r="D50" t="s">
+        <v>219</v>
+      </c>
+      <c r="E50">
+        <v>21</v>
+      </c>
+      <c r="F50" t="s">
+        <v>220</v>
+      </c>
+      <c r="G50" t="s">
+        <v>247</v>
+      </c>
+      <c r="H50">
+        <v>30</v>
+      </c>
+      <c r="I50">
+        <v>2</v>
+      </c>
+      <c r="J50">
+        <v>10</v>
+      </c>
+      <c r="K50">
+        <v>10</v>
+      </c>
+      <c r="L50">
+        <v>24</v>
+      </c>
+      <c r="M50">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>359</v>
+      </c>
+      <c r="B51" t="s">
+        <v>216</v>
+      </c>
+      <c r="C51">
+        <v>22</v>
+      </c>
+      <c r="D51" t="s">
+        <v>219</v>
+      </c>
+      <c r="E51">
+        <v>22</v>
+      </c>
+      <c r="F51" t="s">
+        <v>220</v>
+      </c>
+      <c r="G51" t="s">
+        <v>248</v>
+      </c>
+      <c r="H51">
+        <v>30</v>
+      </c>
+      <c r="I51">
+        <v>2</v>
+      </c>
+      <c r="J51">
+        <v>10</v>
+      </c>
+      <c r="K51">
+        <v>10</v>
+      </c>
+      <c r="L51">
+        <v>24</v>
+      </c>
+      <c r="M51">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>359</v>
+      </c>
+      <c r="B52" t="s">
+        <v>217</v>
+      </c>
+      <c r="C52">
+        <v>23</v>
+      </c>
+      <c r="D52" t="s">
+        <v>219</v>
+      </c>
+      <c r="E52">
+        <v>23</v>
+      </c>
+      <c r="F52" t="s">
+        <v>220</v>
+      </c>
+      <c r="G52" t="s">
+        <v>249</v>
+      </c>
+      <c r="H52">
+        <v>30</v>
+      </c>
+      <c r="I52">
+        <v>2</v>
+      </c>
+      <c r="J52">
+        <v>10</v>
+      </c>
+      <c r="K52">
+        <v>10</v>
+      </c>
+      <c r="L52">
+        <v>24</v>
+      </c>
+      <c r="M52">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>359</v>
+      </c>
+      <c r="B53" t="s">
+        <v>218</v>
+      </c>
+      <c r="C53">
+        <v>24</v>
+      </c>
+      <c r="D53" t="s">
+        <v>219</v>
+      </c>
+      <c r="E53">
+        <v>24</v>
+      </c>
+      <c r="F53" t="s">
+        <v>220</v>
+      </c>
+      <c r="G53" t="s">
+        <v>250</v>
+      </c>
+      <c r="H53">
+        <v>30</v>
+      </c>
+      <c r="I53">
+        <v>2</v>
+      </c>
+      <c r="J53">
+        <v>10</v>
+      </c>
+      <c r="K53">
+        <v>10</v>
+      </c>
+      <c r="L53">
+        <v>24</v>
+      </c>
+      <c r="M53">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>359</v>
+      </c>
+      <c r="B54" t="s">
+        <v>357</v>
+      </c>
+      <c r="C54">
+        <v>25</v>
+      </c>
+      <c r="D54" t="s">
+        <v>219</v>
+      </c>
+      <c r="E54">
+        <v>25</v>
+      </c>
+      <c r="F54" t="s">
+        <v>220</v>
+      </c>
+      <c r="G54" t="s">
+        <v>251</v>
+      </c>
+      <c r="H54">
+        <v>30</v>
+      </c>
+      <c r="I54">
+        <v>2</v>
+      </c>
+      <c r="J54">
+        <v>10</v>
+      </c>
+      <c r="L54">
+        <v>24</v>
+      </c>
+      <c r="M54">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
